--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -3,10 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="171027" fullCalcOnLoad="1"/>
@@ -1233,376 +1231,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="8" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="29" t="inlineStr">
-        <is>
-          <t>PORTFOLIO PERFORMANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>Total Net Worth (Latest)</t>
-        </is>
-      </c>
-      <c r="B4" s="31" t="inlineStr">
-        <is>
-          <t>$1,312,309.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Total Profit/Loss (YTD)</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>$15,540.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
-        <is>
-          <t>Profit %</t>
-        </is>
-      </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
-        <is>
-          <t>Largest Monthly Gain</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="inlineStr">
-        <is>
-          <t>$38,785.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
-        <is>
-          <t>Largest Monthly Loss</t>
-        </is>
-      </c>
-      <c r="B8" s="31" t="inlineStr">
-        <is>
-          <t>$-37,226.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="29" t="inlineStr">
-        <is>
-          <t>VS. S&amp;P 500 BENCHMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Your Portfolio Gain</t>
-        </is>
-      </c>
-      <c r="B11" s="31" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Gain (Est.)</t>
-        </is>
-      </c>
-      <c r="B12" s="31" t="inlineStr">
-        <is>
-          <t>$-19,152.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>Outperformance</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="inlineStr">
-        <is>
-          <t>$34,692.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>Your Portfolio %</t>
-        </is>
-      </c>
-      <c r="B14" s="31" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 %</t>
-        </is>
-      </c>
-      <c r="B15" s="31" t="inlineStr">
-        <is>
-          <t>-1.48%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
-        <is>
-          <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
-        </is>
-      </c>
-      <c r="B1" s="35" t="n"/>
-      <c r="C1" s="35" t="n"/>
-      <c r="D1" s="35" t="n"/>
-      <c r="E1" s="36" t="n"/>
-    </row>
-    <row r="2" ht="8" customHeight="1"/>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" s="29" t="inlineStr">
-        <is>
-          <t>PORTFOLIO PERFORMANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="30" t="inlineStr">
-        <is>
-          <t>Total Net Worth (Latest)</t>
-        </is>
-      </c>
-      <c r="B4" s="31" t="inlineStr">
-        <is>
-          <t>$1,312,309.87</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Total Profit/Loss (YTD)</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>$15,540.38</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
-        <is>
-          <t>Profit %</t>
-        </is>
-      </c>
-      <c r="B6" s="31" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
-        <is>
-          <t>Largest Monthly Gain</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="inlineStr">
-        <is>
-          <t>$38,785.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
-        <is>
-          <t>Largest Monthly Loss</t>
-        </is>
-      </c>
-      <c r="B8" s="31" t="inlineStr">
-        <is>
-          <t>$-37,226.69</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="29" t="inlineStr">
-        <is>
-          <t>VS. S&amp;P 500 BENCHMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="32" t="inlineStr">
-        <is>
-          <t>Your Portfolio Gain</t>
-        </is>
-      </c>
-      <c r="B11" s="31" t="inlineStr">
-        <is>
-          <t>$0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="32" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Gain (Est.)</t>
-        </is>
-      </c>
-      <c r="B12" s="31" t="inlineStr">
-        <is>
-          <t>$-19,152.54</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="32" t="inlineStr">
-        <is>
-          <t>Outperformance</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="inlineStr">
-        <is>
-          <t>$34,692.92</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="32" t="inlineStr">
-        <is>
-          <t>Your Portfolio %</t>
-        </is>
-      </c>
-      <c r="B14" s="31" t="inlineStr">
-        <is>
-          <t>1.20%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="32" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 %</t>
-        </is>
-      </c>
-      <c r="B15" s="31" t="inlineStr">
-        <is>
-          <t>-1.48%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="A3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1810,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -2,21 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="171027" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0&quot;%&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0&quot;%&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="13">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,11 +30,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
-      <sz val="16"/>
+      <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b val="1"/>
@@ -48,20 +75,78 @@
     <font>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <color rgb="00666666"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
       <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001F4788"/>
-      <sz val="11"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="13"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="22">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F4788"/>
+        <bgColor rgb="FF1F4788"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor rgb="FFD9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1DCDB"/>
+        <bgColor rgb="FFF1DCDB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFE7E6E6"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,15 +198,141 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="002E5C8A"/>
+        <bgColor rgb="002E5C8A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="004472C4"/>
         <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070AD47"/>
+        <bgColor rgb="0070AD47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C5504F"/>
+        <bgColor rgb="00C5504F"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -160,149 +371,190 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="10" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="13" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="15" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="15" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="16" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="16" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="17" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="17" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -382,26 +634,37 @@
       <tx>
         <rich>
           <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
           <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
+      <overlay val="1"/>
     </title>
     <plotArea>
+      <layout/>
       <lineChart>
         <grouping val="standard"/>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Executive Summary'!H3</f>
+              <f>'Executive Summary'!$H$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Portfolio Value</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -421,22 +684,114 @@
             </spPr>
           </marker>
           <cat>
-            <numRef>
+            <strRef>
               <f>'Executive Summary'!$G$4:$G$15</f>
-            </numRef>
+              <strCache>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>Mar 25</v>
+                </pt>
+                <pt idx="1">
+                  <v>Apr 25</v>
+                </pt>
+                <pt idx="2">
+                  <v>May 25</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jun 25</v>
+                </pt>
+                <pt idx="4">
+                  <v>Jul 25</v>
+                </pt>
+                <pt idx="5">
+                  <v>Aug 25</v>
+                </pt>
+                <pt idx="6">
+                  <v>Sep 25</v>
+                </pt>
+                <pt idx="7">
+                  <v>Oct 25</v>
+                </pt>
+                <pt idx="8">
+                  <v>Nov 25</v>
+                </pt>
+                <pt idx="9">
+                  <v>Dec 25</v>
+                </pt>
+                <pt idx="10">
+                  <v>Jan 26</v>
+                </pt>
+                <pt idx="11">
+                  <v>Feb 26</v>
+                </pt>
+              </strCache>
+            </strRef>
           </cat>
           <val>
             <numRef>
               <f>'Executive Summary'!$H$4:$H$15</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>554754.9286932899</v>
+                </pt>
+                <pt idx="1">
+                  <v>562205.3171438304</v>
+                </pt>
+                <pt idx="2">
+                  <v>601091.0218253548</v>
+                </pt>
+                <pt idx="3">
+                  <v>628557.4543945304</v>
+                </pt>
+                <pt idx="4">
+                  <v>652136.6935154304</v>
+                </pt>
+                <pt idx="5">
+                  <v>661336.8341174951</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>General</formatCode>
+                  <v>682737.1157878836</v>
+                </pt>
+                <pt idx="7">
+                  <formatCode>General</formatCode>
+                  <v>695031.8750224716</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>General</formatCode>
+                  <v>1295993.009552709</v>
+                </pt>
+                <pt idx="9">
+                  <formatCode>General</formatCode>
+                  <v>1271131.079888474</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>General</formatCode>
+                  <v>1296769.487462468</v>
+                </pt>
+                <pt idx="11">
+                  <formatCode>General</formatCode>
+                  <v>1312309.868769997</v>
+                </pt>
+              </numCache>
             </numRef>
           </val>
+          <smooth val="1"/>
         </ser>
         <ser>
           <idx val="1"/>
           <order val="1"/>
           <tx>
             <strRef>
-              <f>'Executive Summary'!I3</f>
+              <f>'Executive Summary'!$I$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>S&amp;P Value</v>
+                </pt>
+              </strCache>
             </strRef>
           </tx>
           <spPr>
@@ -456,19 +811,1012 @@
             </spPr>
           </marker>
           <cat>
+            <strRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+              <strCache>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>Mar 25</v>
+                </pt>
+                <pt idx="1">
+                  <v>Apr 25</v>
+                </pt>
+                <pt idx="2">
+                  <v>May 25</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jun 25</v>
+                </pt>
+                <pt idx="4">
+                  <v>Jul 25</v>
+                </pt>
+                <pt idx="5">
+                  <v>Aug 25</v>
+                </pt>
+                <pt idx="6">
+                  <v>Sep 25</v>
+                </pt>
+                <pt idx="7">
+                  <v>Oct 25</v>
+                </pt>
+                <pt idx="8">
+                  <v>Nov 25</v>
+                </pt>
+                <pt idx="9">
+                  <v>Dec 25</v>
+                </pt>
+                <pt idx="10">
+                  <v>Jan 26</v>
+                </pt>
+                <pt idx="11">
+                  <v>Feb 26</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
             <numRef>
+              <f>'Executive Summary'!$I$4:$I$15</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>-34655.27135165919</v>
+                </pt>
+                <pt idx="1">
+                  <v>-3125.789866504834</v>
+                </pt>
+                <pt idx="2">
+                  <v>35332.12597155511</v>
+                </pt>
+                <pt idx="3">
+                  <v>29027.99932986168</v>
+                </pt>
+                <pt idx="4">
+                  <v>16269.59043355174</v>
+                </pt>
+                <pt idx="5">
+                  <v>13382.78997811353</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>General</formatCode>
+                  <v>21666.12505441923</v>
+                </pt>
+                <pt idx="7">
+                  <formatCode>General</formatCode>
+                  <v>18152.17842261858</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>General</formatCode>
+                  <v>1697.485681365851</v>
+                </pt>
+                <pt idx="9">
+                  <formatCode>General</formatCode>
+                  <v>-2832.22380962135</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>General</formatCode>
+                  <v>22448.7206638563</v>
+                </pt>
+                <pt idx="11">
+                  <formatCode>General</formatCode>
+                  <v>-19152.54152906402</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <smooth val="0"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!$H$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Portfolio Value</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <strRef>
               <f>'Executive Summary'!$G$4:$G$15</f>
+              <strCache>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>Mar 25</v>
+                </pt>
+                <pt idx="1">
+                  <v>Apr 25</v>
+                </pt>
+                <pt idx="2">
+                  <v>May 25</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jun 25</v>
+                </pt>
+                <pt idx="4">
+                  <v>Jul 25</v>
+                </pt>
+                <pt idx="5">
+                  <v>Aug 25</v>
+                </pt>
+                <pt idx="6">
+                  <v>Sep 25</v>
+                </pt>
+                <pt idx="7">
+                  <v>Oct 25</v>
+                </pt>
+                <pt idx="8">
+                  <v>Nov 25</v>
+                </pt>
+                <pt idx="9">
+                  <v>Dec 25</v>
+                </pt>
+                <pt idx="10">
+                  <v>Jan 26</v>
+                </pt>
+                <pt idx="11">
+                  <v>Feb 26</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>554754.9286932899</v>
+                </pt>
+                <pt idx="1">
+                  <v>562205.3171438304</v>
+                </pt>
+                <pt idx="2">
+                  <v>601091.0218253548</v>
+                </pt>
+                <pt idx="3">
+                  <v>628557.4543945304</v>
+                </pt>
+                <pt idx="4">
+                  <v>652136.6935154304</v>
+                </pt>
+                <pt idx="5">
+                  <v>661336.8341174951</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>General</formatCode>
+                  <v>682737.1157878836</v>
+                </pt>
+                <pt idx="7">
+                  <formatCode>General</formatCode>
+                  <v>695031.8750224716</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>General</formatCode>
+                  <v>1295993.009552709</v>
+                </pt>
+                <pt idx="9">
+                  <formatCode>General</formatCode>
+                  <v>1271131.079888474</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>General</formatCode>
+                  <v>1296769.487462468</v>
+                </pt>
+                <pt idx="11">
+                  <formatCode>General</formatCode>
+                  <v>1312309.868769997</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!$I$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>S&amp;P Value</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <strRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+              <strCache>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>Mar 25</v>
+                </pt>
+                <pt idx="1">
+                  <v>Apr 25</v>
+                </pt>
+                <pt idx="2">
+                  <v>May 25</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jun 25</v>
+                </pt>
+                <pt idx="4">
+                  <v>Jul 25</v>
+                </pt>
+                <pt idx="5">
+                  <v>Aug 25</v>
+                </pt>
+                <pt idx="6">
+                  <v>Sep 25</v>
+                </pt>
+                <pt idx="7">
+                  <v>Oct 25</v>
+                </pt>
+                <pt idx="8">
+                  <v>Nov 25</v>
+                </pt>
+                <pt idx="9">
+                  <v>Dec 25</v>
+                </pt>
+                <pt idx="10">
+                  <v>Jan 26</v>
+                </pt>
+                <pt idx="11">
+                  <v>Feb 26</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$I$4:$I$15</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>-34655.27135165919</v>
+                </pt>
+                <pt idx="1">
+                  <v>-3125.789866504834</v>
+                </pt>
+                <pt idx="2">
+                  <v>35332.12597155511</v>
+                </pt>
+                <pt idx="3">
+                  <v>29027.99932986168</v>
+                </pt>
+                <pt idx="4">
+                  <v>16269.59043355174</v>
+                </pt>
+                <pt idx="5">
+                  <v>13382.78997811353</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>General</formatCode>
+                  <v>21666.12505441923</v>
+                </pt>
+                <pt idx="7">
+                  <formatCode>General</formatCode>
+                  <v>18152.17842261858</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>General</formatCode>
+                  <v>1697.485681365851</v>
+                </pt>
+                <pt idx="9">
+                  <formatCode>General</formatCode>
+                  <v>-2832.22380962135</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>General</formatCode>
+                  <v>22448.7206638563</v>
+                </pt>
+                <pt idx="11">
+                  <formatCode>General</formatCode>
+                  <v>-19152.54152906402</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <smooth val="0"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+      <overlay val="1"/>
+    </title>
+    <plotArea>
+      <layout/>
+      <lineChart>
+        <grouping val="standard"/>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!$H$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>Portfolio Value</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
+              <a:solidFill>
+                <a:srgbClr val="1F4788"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <strRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+              <strCache>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>Mar 25</v>
+                </pt>
+                <pt idx="1">
+                  <v>Apr 25</v>
+                </pt>
+                <pt idx="2">
+                  <v>May 25</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jun 25</v>
+                </pt>
+                <pt idx="4">
+                  <v>Jul 25</v>
+                </pt>
+                <pt idx="5">
+                  <v>Aug 25</v>
+                </pt>
+                <pt idx="6">
+                  <v>Sep 25</v>
+                </pt>
+                <pt idx="7">
+                  <v>Oct 25</v>
+                </pt>
+                <pt idx="8">
+                  <v>Nov 25</v>
+                </pt>
+                <pt idx="9">
+                  <v>Dec 25</v>
+                </pt>
+                <pt idx="10">
+                  <v>Jan 26</v>
+                </pt>
+                <pt idx="11">
+                  <v>Feb 26</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$H$4:$H$15</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>554754.9286932899</v>
+                </pt>
+                <pt idx="1">
+                  <v>562205.3171438304</v>
+                </pt>
+                <pt idx="2">
+                  <v>601091.0218253548</v>
+                </pt>
+                <pt idx="3">
+                  <v>628557.4543945304</v>
+                </pt>
+                <pt idx="4">
+                  <v>652136.6935154304</v>
+                </pt>
+                <pt idx="5">
+                  <v>661336.8341174951</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>General</formatCode>
+                  <v>682737.1157878836</v>
+                </pt>
+                <pt idx="7">
+                  <formatCode>General</formatCode>
+                  <v>695031.8750224716</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>General</formatCode>
+                  <v>1295993.009552709</v>
+                </pt>
+                <pt idx="9">
+                  <formatCode>General</formatCode>
+                  <v>1271131.079888474</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>General</formatCode>
+                  <v>1296769.487462468</v>
+                </pt>
+                <pt idx="11">
+                  <formatCode>General</formatCode>
+                  <v>1312309.868769997</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!$I$3</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>S&amp;P Value</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
+              <a:solidFill>
+                <a:srgbClr val="595959"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <strRef>
+              <f>'Executive Summary'!$G$4:$G$15</f>
+              <strCache>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>Mar 25</v>
+                </pt>
+                <pt idx="1">
+                  <v>Apr 25</v>
+                </pt>
+                <pt idx="2">
+                  <v>May 25</v>
+                </pt>
+                <pt idx="3">
+                  <v>Jun 25</v>
+                </pt>
+                <pt idx="4">
+                  <v>Jul 25</v>
+                </pt>
+                <pt idx="5">
+                  <v>Aug 25</v>
+                </pt>
+                <pt idx="6">
+                  <v>Sep 25</v>
+                </pt>
+                <pt idx="7">
+                  <v>Oct 25</v>
+                </pt>
+                <pt idx="8">
+                  <v>Nov 25</v>
+                </pt>
+                <pt idx="9">
+                  <v>Dec 25</v>
+                </pt>
+                <pt idx="10">
+                  <v>Jan 26</v>
+                </pt>
+                <pt idx="11">
+                  <v>Feb 26</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$I$4:$I$15</f>
+              <numCache>
+                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
+                <ptCount val="12"/>
+                <pt idx="0">
+                  <v>-34655.27135165919</v>
+                </pt>
+                <pt idx="1">
+                  <v>-3125.789866504834</v>
+                </pt>
+                <pt idx="2">
+                  <v>35332.12597155511</v>
+                </pt>
+                <pt idx="3">
+                  <v>29027.99932986168</v>
+                </pt>
+                <pt idx="4">
+                  <v>16269.59043355174</v>
+                </pt>
+                <pt idx="5">
+                  <v>13382.78997811353</v>
+                </pt>
+                <pt idx="6">
+                  <formatCode>General</formatCode>
+                  <v>21666.12505441923</v>
+                </pt>
+                <pt idx="7">
+                  <formatCode>General</formatCode>
+                  <v>18152.17842261858</v>
+                </pt>
+                <pt idx="8">
+                  <formatCode>General</formatCode>
+                  <v>1697.485681365851</v>
+                </pt>
+                <pt idx="9">
+                  <formatCode>General</formatCode>
+                  <v>-2832.22380962135</v>
+                </pt>
+                <pt idx="10">
+                  <formatCode>General</formatCode>
+                  <v>22448.7206638563</v>
+                </pt>
+                <pt idx="11">
+                  <formatCode>General</formatCode>
+                  <v>-19152.54152906402</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </val>
+          <smooth val="1"/>
+        </ser>
+        <dLbls>
+          <showLegendKey val="0"/>
+          <showVal val="0"/>
+          <showCatName val="0"/>
+          <showSerName val="0"/>
+          <showPercent val="0"/>
+          <showBubbleSize val="0"/>
+        </dLbls>
+        <smooth val="0"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="b"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="General" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="100"/>
+        <crosses val="autoZero"/>
+        <auto val="1"/>
+        <lblAlgn val="ctr"/>
+        <lblOffset val="100"/>
+        <noMultiLvlLbl val="1"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="1"/>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+          <overlay val="1"/>
+        </title>
+        <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <tickLblPos val="nextTo"/>
+        <crossAx val="10"/>
+        <crosses val="autoZero"/>
+        <crossBetween val="between"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Value vs S&amp;P 500 (Monthly Track)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!I2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="1F4788"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$3:$H$14</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Executive Summary'!$I$4:$I$15</f>
+              <f>'Executive Summary'!$I$3:$I$14</f>
             </numRef>
           </val>
         </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!J2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$3:$H$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$J$3:$J$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
-      </lineChart>
+      </barChart>
       <catAx>
         <axId val="10"/>
         <scaling>
@@ -522,13 +1870,16 @@
         <crossAx val="10"/>
       </valAx>
     </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
@@ -540,294 +1891,60 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
+              <a:t>Final Position Analysis</a:t>
             </a:r>
           </a:p>
         </rich>
       </tx>
     </title>
     <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
+      <doughnutChart>
+        <varyColors val="1"/>
         <ser>
           <idx val="0"/>
           <order val="0"/>
           <tx>
             <strRef>
-              <f>'Executive Summary'!H3</f>
+              <f>'Executive Summary'!I15</f>
             </strRef>
           </tx>
           <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
-              <a:solidFill>
-                <a:srgbClr val="1F4788"/>
-              </a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="1F4788"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
-          <marker>
-            <symbol val="none"/>
+          <dPt>
+            <idx val="1"/>
             <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
               <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
-          </marker>
+          </dPt>
           <cat>
             <numRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
+              <f>'Executive Summary'!$H$16:$H$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Executive Summary'!$H$4:$H$15</f>
+              <f>'Executive Summary'!$I$16:$I$17</f>
             </numRef>
           </val>
         </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!I3</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$4:$I$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
+        <firstSliceAng val="0"/>
+        <holeSize val="60"/>
+      </doughnutChart>
     </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!H3</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
-              <a:solidFill>
-                <a:srgbClr val="1F4788"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$H$4:$H$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!I3</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$4:$I$15</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
     <plotVisOnly val="1"/>
     <dispBlanksAs val="gap"/>
   </chart>
@@ -897,6 +2014,50 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="5" name="Chart 5"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1231,26 +2392,280 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1">
-      <c r="A1" s="33" t="inlineStr">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
         </is>
       </c>
-      <c r="B1" s="35" t="n"/>
-      <c r="C1" s="35" t="n"/>
-      <c r="D1" s="35" t="n"/>
-      <c r="E1" s="36" t="n"/>
-    </row>
-    <row r="2" ht="8" customHeight="1"/>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="28" t="inlineStr">
+        <is>
+          <t>Performance Report | As of February 15, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="6" customHeight="1"/>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>💼 PORTFOLIO PERFORMANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1">
+      <c r="A5" s="30" t="inlineStr">
+        <is>
+          <t>Total Net Worth (Latest)</t>
+        </is>
+      </c>
+      <c r="B5" s="31" t="inlineStr">
+        <is>
+          <t>$1,312,309.87</t>
+        </is>
+      </c>
+      <c r="C5" s="32" t="n"/>
+      <c r="D5" s="32" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="24" customHeight="1">
+      <c r="A6" s="30" t="inlineStr">
+        <is>
+          <t>Total Profit/Loss (YTD)</t>
+        </is>
+      </c>
+      <c r="B6" s="34" t="inlineStr">
+        <is>
+          <t>$15,540.38</t>
+        </is>
+      </c>
+      <c r="C6" s="32" t="n"/>
+      <c r="D6" s="32" t="n"/>
+      <c r="E6" s="32" t="n"/>
+      <c r="F6" s="33" t="n"/>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>Profit %</t>
+        </is>
+      </c>
+      <c r="B7" s="31" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="C7" s="32" t="n"/>
+      <c r="D7" s="32" t="n"/>
+      <c r="E7" s="32" t="n"/>
+      <c r="F7" s="33" t="n"/>
+    </row>
+    <row r="8" ht="24" customHeight="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>Largest Monthly Gain</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="inlineStr">
+        <is>
+          <t>$38,785.70</t>
+        </is>
+      </c>
+      <c r="C8" s="32" t="n"/>
+      <c r="D8" s="32" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="33" t="n"/>
+    </row>
+    <row r="9" ht="24" customHeight="1">
+      <c r="A9" s="30" t="inlineStr">
+        <is>
+          <t>Largest Monthly Loss</t>
+        </is>
+      </c>
+      <c r="B9" s="35" t="inlineStr">
+        <is>
+          <t>$-37,226.69</t>
+        </is>
+      </c>
+      <c r="C9" s="32" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="32" t="n"/>
+      <c r="F9" s="33" t="n"/>
+    </row>
+    <row r="11" ht="22" customHeight="1">
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>📊 VS. S&amp;P 500 BENCHMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1">
+      <c r="A12" s="30" t="inlineStr">
+        <is>
+          <t>Your Portfolio Gain</t>
+        </is>
+      </c>
+      <c r="B12" s="34" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="C12" s="32" t="n"/>
+      <c r="D12" s="32" t="n"/>
+      <c r="E12" s="32" t="n"/>
+      <c r="F12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="24" customHeight="1">
+      <c r="A13" s="30" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 Gain (Est.)</t>
+        </is>
+      </c>
+      <c r="B13" s="31" t="inlineStr">
+        <is>
+          <t>$-19,152.54</t>
+        </is>
+      </c>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="32" t="n"/>
+      <c r="F13" s="33" t="n"/>
+    </row>
+    <row r="14" ht="24" customHeight="1">
+      <c r="A14" s="30" t="inlineStr">
+        <is>
+          <t>Outperformance</t>
+        </is>
+      </c>
+      <c r="B14" s="34" t="inlineStr">
+        <is>
+          <t>$34,692.92</t>
+        </is>
+      </c>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="33" t="n"/>
+    </row>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" s="30" t="inlineStr">
+        <is>
+          <t>Your Portfolio %</t>
+        </is>
+      </c>
+      <c r="B15" s="34" t="inlineStr">
+        <is>
+          <t>1.20%</t>
+        </is>
+      </c>
+      <c r="C15" s="32" t="n"/>
+      <c r="D15" s="32" t="n"/>
+      <c r="E15" s="32" t="n"/>
+      <c r="F15" s="33" t="n"/>
+    </row>
+    <row r="16" ht="24" customHeight="1">
+      <c r="A16" s="30" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 %</t>
+        </is>
+      </c>
+      <c r="B16" s="31" t="inlineStr">
+        <is>
+          <t>-1.48%</t>
+        </is>
+      </c>
+      <c r="C16" s="32" t="n"/>
+      <c r="D16" s="32" t="n"/>
+      <c r="E16" s="32" t="n"/>
+      <c r="F16" s="33" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12.42578125" customWidth="1" min="5" max="5"/>
+    <col width="12.42578125" customWidth="1" min="7" max="7"/>
+    <col width="18.85546875" customWidth="1" min="8" max="8"/>
+    <col width="15.5703125" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24.95" customHeight="1">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="n"/>
+      <c r="C1" s="5" t="n"/>
+      <c r="D1" s="5" t="n"/>
+      <c r="E1" s="6" t="n"/>
+    </row>
+    <row r="2" ht="8.1" customHeight="1">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Your Portfolio</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
@@ -1264,13 +2679,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Portfolio Value</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>S&amp;P Value</t>
-        </is>
+          <t>Mar 25</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>554754.9286932899</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-34655.27135165919</v>
       </c>
     </row>
     <row r="4">
@@ -1279,11 +2695,16 @@
           <t>Mar 25</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>554754.9286932899</v>
-      </c>
-      <c r="I4" t="n">
-        <v>-34655.27135165919</v>
+      <c r="H4" s="36" t="inlineStr">
+        <is>
+          <t>Apr 25</t>
+        </is>
+      </c>
+      <c r="I4" s="36" t="n">
+        <v>562205.3171438304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3125.789866504834</v>
       </c>
     </row>
     <row r="5">
@@ -1292,11 +2713,16 @@
           <t>Apr 25</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>562205.3171438304</v>
-      </c>
-      <c r="I5" t="n">
-        <v>-3125.789866504834</v>
+      <c r="H5" s="36" t="inlineStr">
+        <is>
+          <t>May 25</t>
+        </is>
+      </c>
+      <c r="I5" s="36" t="n">
+        <v>601091.0218253548</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35332.12597155511</v>
       </c>
     </row>
     <row r="6">
@@ -1305,11 +2731,16 @@
           <t>May 25</t>
         </is>
       </c>
-      <c r="H6" t="n">
-        <v>601091.0218253548</v>
-      </c>
-      <c r="I6" t="n">
-        <v>35332.12597155511</v>
+      <c r="H6" s="36" t="inlineStr">
+        <is>
+          <t>Jun 25</t>
+        </is>
+      </c>
+      <c r="I6" s="36" t="n">
+        <v>628557.4543945304</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29027.99932986168</v>
       </c>
     </row>
     <row r="7">
@@ -1318,11 +2749,16 @@
           <t>Jun 25</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>628557.4543945304</v>
-      </c>
-      <c r="I7" t="n">
-        <v>29027.99932986168</v>
+      <c r="H7" s="36" t="inlineStr">
+        <is>
+          <t>Jul 25</t>
+        </is>
+      </c>
+      <c r="I7" s="36" t="n">
+        <v>652136.6935154304</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16269.59043355174</v>
       </c>
     </row>
     <row r="8">
@@ -1331,11 +2767,16 @@
           <t>Jul 25</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>652136.6935154304</v>
-      </c>
-      <c r="I8" t="n">
-        <v>16269.59043355174</v>
+      <c r="H8" s="36" t="inlineStr">
+        <is>
+          <t>Aug 25</t>
+        </is>
+      </c>
+      <c r="I8" s="36" t="n">
+        <v>661336.8341174951</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13382.78997811353</v>
       </c>
     </row>
     <row r="9">
@@ -1344,11 +2785,16 @@
           <t>Aug 25</t>
         </is>
       </c>
-      <c r="H9" t="n">
-        <v>661336.8341174951</v>
-      </c>
-      <c r="I9" t="n">
-        <v>13382.78997811353</v>
+      <c r="H9" s="36" t="inlineStr">
+        <is>
+          <t>Sep 25</t>
+        </is>
+      </c>
+      <c r="I9" s="36" t="n">
+        <v>682737.1157878836</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21666.12505441923</v>
       </c>
     </row>
     <row r="10">
@@ -1357,11 +2803,16 @@
           <t>Sep 25</t>
         </is>
       </c>
-      <c r="H10" t="n">
-        <v>682737.1157878836</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Oct 25</t>
+        </is>
       </c>
       <c r="I10" t="n">
-        <v>21666.12505441923</v>
+        <v>695031.8750224716</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18152.17842261858</v>
       </c>
     </row>
     <row r="11">
@@ -1370,11 +2821,16 @@
           <t>Oct 25</t>
         </is>
       </c>
-      <c r="H11" t="n">
-        <v>695031.8750224716</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nov 25</t>
+        </is>
       </c>
       <c r="I11" t="n">
-        <v>18152.17842261858</v>
+        <v>1295993.009552709</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1697.485681365851</v>
       </c>
     </row>
     <row r="12">
@@ -1383,11 +2839,16 @@
           <t>Nov 25</t>
         </is>
       </c>
-      <c r="H12" t="n">
-        <v>1295993.009552709</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dec 25</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>1697.485681365851</v>
+        <v>1271131.079888474</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2832.22380962135</v>
       </c>
     </row>
     <row r="13">
@@ -1396,11 +2857,16 @@
           <t>Dec 25</t>
         </is>
       </c>
-      <c r="H13" t="n">
-        <v>1271131.079888474</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jan 26</t>
+        </is>
       </c>
       <c r="I13" t="n">
-        <v>-2832.22380962135</v>
+        <v>1296769.487462468</v>
+      </c>
+      <c r="J13" t="n">
+        <v>22448.7206638563</v>
       </c>
     </row>
     <row r="14">
@@ -1409,11 +2875,16 @@
           <t>Jan 26</t>
         </is>
       </c>
-      <c r="H14" t="n">
-        <v>1296769.487462468</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Feb 26</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>22448.7206638563</v>
+        <v>1312309.868769997</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-19152.54152906402</v>
       </c>
     </row>
     <row r="15">
@@ -1422,10 +2893,34 @@
           <t>Feb 26</t>
         </is>
       </c>
-      <c r="H15" t="n">
-        <v>1312309.868769997</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Outperformance</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1331462.410299061</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 Level</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>-19152.54152906402</v>
       </c>
     </row>
@@ -1438,7 +2933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1447,24 +2942,24 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="M4" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="4"/>
+    <col width="13" customWidth="1" style="36" min="2" max="9"/>
     <col width="13" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="10"/>
+    <col width="13" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="13" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="13" customWidth="1" min="10" max="10"/>
-    <col width="13" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
-    <col width="13" customWidth="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="36" min="10" max="10"/>
+    <col width="13" customWidth="1" style="36" min="11" max="11"/>
+    <col width="13" customWidth="1" style="36" min="12" max="12"/>
+    <col width="13" customWidth="1" style="36" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1">
@@ -1473,1310 +2968,1310 @@
           <t xml:space="preserve">         Portfolio report: 💰 My Net Worth</t>
         </is>
       </c>
-      <c r="B1" s="38" t="n"/>
-      <c r="C1" s="38" t="n"/>
-      <c r="D1" s="39" t="n"/>
+      <c r="B1" s="8" t="n"/>
+      <c r="C1" s="8" t="n"/>
+      <c r="D1" s="9" t="n"/>
     </row>
     <row r="2" ht="8" customHeight="1">
-      <c r="A2" s="40" t="n"/>
-      <c r="B2" s="41" t="n"/>
-      <c r="C2" s="41" t="n"/>
-      <c r="D2" s="42" t="n"/>
+      <c r="A2" s="10" t="n"/>
+      <c r="B2" s="11" t="n"/>
+      <c r="C2" s="11" t="n"/>
+      <c r="D2" s="12" t="n"/>
     </row>
     <row r="3" ht="8" customHeight="1"/>
     <row r="4" ht="20" customHeight="1">
-      <c r="A4" s="9" t="inlineStr"/>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="A4" s="38" t="n"/>
+      <c r="B4" s="39" t="inlineStr">
         <is>
           <t>Mar 25</t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
+      <c r="C4" s="39" t="inlineStr">
         <is>
           <t>Apr 25</t>
         </is>
       </c>
-      <c r="D4" s="9" t="inlineStr">
+      <c r="D4" s="39" t="inlineStr">
         <is>
           <t>May 25</t>
         </is>
       </c>
-      <c r="E4" s="9" t="inlineStr">
+      <c r="E4" s="39" t="inlineStr">
         <is>
           <t>Jun 25</t>
         </is>
       </c>
-      <c r="F4" s="9" t="inlineStr">
+      <c r="F4" s="39" t="inlineStr">
         <is>
           <t>Jul 25</t>
         </is>
       </c>
-      <c r="G4" s="9" t="inlineStr">
+      <c r="G4" s="39" t="inlineStr">
         <is>
           <t>Aug 25</t>
         </is>
       </c>
-      <c r="H4" s="9" t="inlineStr">
+      <c r="H4" s="39" t="inlineStr">
         <is>
           <t>Sep 25</t>
         </is>
       </c>
-      <c r="I4" s="9" t="inlineStr">
+      <c r="I4" s="39" t="inlineStr">
         <is>
           <t>Oct 25</t>
         </is>
       </c>
-      <c r="J4" s="9" t="inlineStr">
+      <c r="J4" s="39" t="inlineStr">
         <is>
           <t>Nov 25</t>
         </is>
       </c>
-      <c r="K4" s="9" t="inlineStr">
+      <c r="K4" s="39" t="inlineStr">
         <is>
           <t>Dec 25</t>
         </is>
       </c>
-      <c r="L4" s="9" t="inlineStr">
+      <c r="L4" s="39" t="inlineStr">
         <is>
           <t>Jan 26</t>
         </is>
       </c>
-      <c r="M4" s="9" t="inlineStr">
+      <c r="M4" s="39" t="inlineStr">
         <is>
           <t>Feb 26</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="18" customFormat="1" customHeight="1" s="3">
-      <c r="A5" s="10" t="inlineStr">
+    <row r="5" ht="18" customFormat="1" customHeight="1" s="1">
+      <c r="A5" s="40" t="inlineStr">
         <is>
           <t>Portfolio value</t>
         </is>
       </c>
-      <c r="B5" s="11" t="n">
+      <c r="B5" s="41" t="n">
         <v>554754.9286932899</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="41" t="n">
         <v>562205.3171438304</v>
       </c>
-      <c r="D5" s="11" t="n">
+      <c r="D5" s="41" t="n">
         <v>601091.0218253548</v>
       </c>
-      <c r="E5" s="11" t="n">
+      <c r="E5" s="41" t="n">
         <v>628557.4543945304</v>
       </c>
-      <c r="F5" s="11" t="n">
+      <c r="F5" s="41" t="n">
         <v>652136.6935154304</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="41" t="n">
         <v>661336.8341174951</v>
       </c>
-      <c r="H5" s="11" t="n">
+      <c r="H5" s="41" t="n">
         <v>682737.1157878836</v>
       </c>
-      <c r="I5" s="11" t="n">
+      <c r="I5" s="41" t="n">
         <v>695031.8750224716</v>
       </c>
-      <c r="J5" s="11" t="n">
+      <c r="J5" s="41" t="n">
         <v>1295993.009552709</v>
       </c>
-      <c r="K5" s="11" t="n">
+      <c r="K5" s="41" t="n">
         <v>1271131.079888474</v>
       </c>
-      <c r="L5" s="11" t="n">
+      <c r="L5" s="41" t="n">
         <v>1296769.487462468</v>
       </c>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="41" t="n">
         <v>1312309.868769997</v>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="10" t="inlineStr">
+      <c r="A6" s="40" t="inlineStr">
         <is>
           <t>At the beginning of the period</t>
         </is>
       </c>
-      <c r="B6" s="12" t="n">
+      <c r="B6" s="42" t="n">
         <v>591831.6154713357</v>
       </c>
-      <c r="C6" s="12" t="n">
+      <c r="C6" s="42" t="n">
         <v>554754.9286932899</v>
       </c>
-      <c r="D6" s="12" t="n">
+      <c r="D6" s="42" t="n">
         <v>562205.3171438304</v>
       </c>
-      <c r="E6" s="12" t="n">
+      <c r="E6" s="42" t="n">
         <v>601091.0218253548</v>
       </c>
-      <c r="F6" s="12" t="n">
+      <c r="F6" s="42" t="n">
         <v>628557.4543945304</v>
       </c>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="42" t="n">
         <v>652136.6935154304</v>
       </c>
-      <c r="H6" s="12" t="n">
+      <c r="H6" s="42" t="n">
         <v>661336.8341174951</v>
       </c>
-      <c r="I6" s="12" t="n">
+      <c r="I6" s="42" t="n">
         <v>682737.1157878836</v>
       </c>
-      <c r="J6" s="12" t="n">
+      <c r="J6" s="42" t="n">
         <v>695031.8750224716</v>
       </c>
-      <c r="K6" s="12" t="n">
+      <c r="K6" s="42" t="n">
         <v>1295993.009552709</v>
       </c>
-      <c r="L6" s="12" t="n">
+      <c r="L6" s="42" t="n">
         <v>1271131.079888474</v>
       </c>
-      <c r="M6" s="12" t="n">
+      <c r="M6" s="42" t="n">
         <v>1296769.487462468</v>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" s="40" t="inlineStr">
         <is>
           <t>At the end of the period</t>
         </is>
       </c>
-      <c r="B7" s="12" t="n">
+      <c r="B7" s="42" t="n">
         <v>554754.9286932899</v>
       </c>
-      <c r="C7" s="12" t="n">
+      <c r="C7" s="42" t="n">
         <v>562205.3171438304</v>
       </c>
-      <c r="D7" s="12" t="n">
+      <c r="D7" s="42" t="n">
         <v>601091.0218253548</v>
       </c>
-      <c r="E7" s="12" t="n">
+      <c r="E7" s="42" t="n">
         <v>628557.4543945304</v>
       </c>
-      <c r="F7" s="12" t="n">
+      <c r="F7" s="42" t="n">
         <v>652136.6935154304</v>
       </c>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="42" t="n">
         <v>661336.8341174951</v>
       </c>
-      <c r="H7" s="12" t="n">
+      <c r="H7" s="42" t="n">
         <v>682737.1157878836</v>
       </c>
-      <c r="I7" s="12" t="n">
+      <c r="I7" s="42" t="n">
         <v>695031.8750224716</v>
       </c>
-      <c r="J7" s="12" t="n">
+      <c r="J7" s="42" t="n">
         <v>1295993.009552709</v>
       </c>
-      <c r="K7" s="12" t="n">
+      <c r="K7" s="42" t="n">
         <v>1271131.079888474</v>
       </c>
-      <c r="L7" s="12" t="n">
+      <c r="L7" s="42" t="n">
         <v>1296769.487462468</v>
       </c>
-      <c r="M7" s="12" t="n">
+      <c r="M7" s="42" t="n">
         <v>1312309.868769997</v>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="10" t="inlineStr">
+      <c r="A8" s="40" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
       </c>
-      <c r="B8" s="12" t="n">
+      <c r="B8" s="42" t="n">
         <v>-37076.68677804584</v>
       </c>
-      <c r="C8" s="12" t="n">
+      <c r="C8" s="42" t="n">
         <v>7450.38845054048</v>
       </c>
-      <c r="D8" s="12" t="n">
+      <c r="D8" s="42" t="n">
         <v>38885.7046815244</v>
       </c>
-      <c r="E8" s="12" t="n">
+      <c r="E8" s="42" t="n">
         <v>27466.4325691756</v>
       </c>
-      <c r="F8" s="12" t="n">
+      <c r="F8" s="42" t="n">
         <v>23579.2391209</v>
       </c>
-      <c r="G8" s="12" t="n">
+      <c r="G8" s="42" t="n">
         <v>9200.140602064706</v>
       </c>
-      <c r="H8" s="12" t="n">
+      <c r="H8" s="42" t="n">
         <v>21400.28167038859</v>
       </c>
-      <c r="I8" s="12" t="n">
+      <c r="I8" s="42" t="n">
         <v>12294.75923458802</v>
       </c>
-      <c r="J8" s="12" t="n">
+      <c r="J8" s="42" t="n">
         <v>600961.1345302372</v>
       </c>
-      <c r="K8" s="12" t="n">
+      <c r="K8" s="42" t="n">
         <v>-24861.92966423521</v>
       </c>
-      <c r="L8" s="12" t="n">
+      <c r="L8" s="42" t="n">
         <v>25638.40757399479</v>
       </c>
-      <c r="M8" s="12" t="n">
+      <c r="M8" s="42" t="n">
         <v>15540.3813075284</v>
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n"/>
-      <c r="D9" s="13" t="n"/>
-      <c r="E9" s="13" t="n"/>
-      <c r="F9" s="13" t="n"/>
-      <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
-      <c r="J9" s="13" t="n"/>
-      <c r="K9" s="13" t="n"/>
-      <c r="L9" s="13" t="n"/>
-      <c r="M9" s="13" t="n"/>
-    </row>
-    <row r="10" ht="18" customFormat="1" customHeight="1" s="3">
-      <c r="A10" s="10" t="inlineStr">
+      <c r="A9" s="40" t="n"/>
+      <c r="B9" s="43" t="n"/>
+      <c r="C9" s="43" t="n"/>
+      <c r="D9" s="43" t="n"/>
+      <c r="E9" s="43" t="n"/>
+      <c r="F9" s="43" t="n"/>
+      <c r="G9" s="43" t="n"/>
+      <c r="H9" s="43" t="n"/>
+      <c r="I9" s="43" t="n"/>
+      <c r="J9" s="43" t="n"/>
+      <c r="K9" s="43" t="n"/>
+      <c r="L9" s="43" t="n"/>
+      <c r="M9" s="43" t="n"/>
+    </row>
+    <row r="10" ht="18" customFormat="1" customHeight="1" s="1">
+      <c r="A10" s="40" t="inlineStr">
         <is>
           <t>Total profit</t>
         </is>
       </c>
-      <c r="B10" s="14" t="n">
+      <c r="B10" s="44" t="n">
         <v>-37226.68677804584</v>
       </c>
-      <c r="C10" s="14" t="n">
+      <c r="C10" s="44" t="n">
         <v>7350.38845054048</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="44" t="n">
         <v>38785.7046815244</v>
       </c>
-      <c r="E10" s="14" t="n">
+      <c r="E10" s="44" t="n">
         <v>27366.4325691756</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="44" t="n">
         <v>23479.2391209</v>
       </c>
-      <c r="G10" s="14" t="n">
+      <c r="G10" s="44" t="n">
         <v>9100.140602064706</v>
       </c>
-      <c r="H10" s="14" t="n">
+      <c r="H10" s="44" t="n">
         <v>21254.7016703886</v>
       </c>
-      <c r="I10" s="14" t="n">
+      <c r="I10" s="44" t="n">
         <v>12223.76923458802</v>
       </c>
-      <c r="J10" s="14" t="n">
+      <c r="J10" s="44" t="n">
         <v>3752.334460237172</v>
       </c>
-      <c r="K10" s="14" t="n">
+      <c r="K10" s="44" t="n">
         <v>-2104.91966423521</v>
       </c>
-      <c r="L10" s="14" t="n">
+      <c r="L10" s="44" t="n">
         <v>25638.40757399479</v>
       </c>
-      <c r="M10" s="14" t="n">
+      <c r="M10" s="44" t="n">
         <v>15540.3813075284</v>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="10" t="inlineStr">
+      <c r="A11" s="40" t="inlineStr">
         <is>
           <t>Total profit, %</t>
         </is>
       </c>
-      <c r="B11" s="15" t="n">
+      <c r="B11" s="45" t="n">
         <v>-6.29</v>
       </c>
-      <c r="C11" s="15" t="n">
+      <c r="C11" s="45" t="n">
         <v>1.32</v>
       </c>
-      <c r="D11" s="15" t="n">
+      <c r="D11" s="45" t="n">
         <v>6.9</v>
       </c>
-      <c r="E11" s="15" t="n">
+      <c r="E11" s="45" t="n">
         <v>4.55</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="45" t="n">
         <v>3.73</v>
       </c>
-      <c r="G11" s="15" t="n">
+      <c r="G11" s="45" t="n">
         <v>1.4</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="45" t="n">
         <v>3.21</v>
       </c>
-      <c r="I11" s="15" t="n">
+      <c r="I11" s="45" t="n">
         <v>1.79</v>
       </c>
-      <c r="J11" s="15" t="n">
+      <c r="J11" s="45" t="n">
         <v>0.29</v>
       </c>
-      <c r="K11" s="15" t="n">
+      <c r="K11" s="45" t="n">
         <v>-0.17</v>
       </c>
-      <c r="L11" s="15" t="n">
+      <c r="L11" s="45" t="n">
         <v>2.02</v>
       </c>
-      <c r="M11" s="15" t="n">
+      <c r="M11" s="45" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="10" t="inlineStr">
+      <c r="A12" s="40" t="inlineStr">
         <is>
           <t>Net profit from sales</t>
         </is>
       </c>
-      <c r="B12" s="16" t="n">
+      <c r="B12" s="46" t="n">
         <v>5553.165</v>
       </c>
-      <c r="C12" s="16" t="n">
+      <c r="C12" s="46" t="n">
         <v>1723.24</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="46" t="n">
         <v>449.74</v>
       </c>
-      <c r="E12" s="16" t="n">
+      <c r="E12" s="46" t="n">
         <v>-3086.6069728</v>
       </c>
-      <c r="F12" s="16" t="n">
+      <c r="F12" s="46" t="n">
         <v>-1381.3364514</v>
       </c>
-      <c r="G12" s="16" t="n">
+      <c r="G12" s="46" t="n">
         <v>8305.104026200001</v>
       </c>
-      <c r="H12" s="16" t="n">
+      <c r="H12" s="46" t="n">
         <v>12579.83948</v>
       </c>
-      <c r="I12" s="16" t="n">
+      <c r="I12" s="46" t="n">
         <v>5346.32629456016</v>
       </c>
-      <c r="J12" s="16" t="n">
+      <c r="J12" s="46" t="n">
         <v>5675.72841725677</v>
       </c>
-      <c r="K12" s="16" t="n">
+      <c r="K12" s="46" t="n">
         <v>2243.5725</v>
       </c>
-      <c r="L12" s="16" t="n">
+      <c r="L12" s="46" t="n">
         <v>3359.99223564234</v>
       </c>
-      <c r="M12" s="16" t="n">
+      <c r="M12" s="46" t="n">
         <v>4480.63932425</v>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="40" t="inlineStr">
         <is>
           <t>Profit from price change</t>
         </is>
       </c>
-      <c r="B13" s="12" t="n">
+      <c r="B13" s="42" t="n">
         <v>-36373.55177804584</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="42" t="n">
         <v>7273.95845054048</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="42" t="n">
         <v>41684.9946815244</v>
       </c>
-      <c r="E13" s="12" t="n">
+      <c r="E13" s="42" t="n">
         <v>19267.0674475</v>
       </c>
-      <c r="F13" s="12" t="n">
+      <c r="F13" s="42" t="n">
         <v>17105.4251209</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G13" s="42" t="n">
         <v>2516.702102064706</v>
       </c>
-      <c r="H13" s="12" t="n">
+      <c r="H13" s="42" t="n">
         <v>11118.5429303886</v>
       </c>
-      <c r="I13" s="12" t="n">
+      <c r="I13" s="42" t="n">
         <v>13723.93975898802</v>
       </c>
-      <c r="J13" s="12" t="n">
+      <c r="J13" s="42" t="n">
         <v>5579.085247613042</v>
       </c>
-      <c r="K13" s="12" t="n">
+      <c r="K13" s="42" t="n">
         <v>-8293.70966423521</v>
       </c>
-      <c r="L13" s="12" t="n">
+      <c r="L13" s="42" t="n">
         <v>23608.19711939479</v>
       </c>
-      <c r="M13" s="12" t="n">
+      <c r="M13" s="42" t="n">
         <v>13487.8226375284</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="40" t="inlineStr">
         <is>
           <t>Profit from sales</t>
         </is>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="46" t="n">
         <v>4781.065</v>
       </c>
-      <c r="C14" s="16" t="n">
+      <c r="C14" s="46" t="n">
         <v>1723.46</v>
       </c>
-      <c r="D14" s="16" t="n">
+      <c r="D14" s="46" t="n">
         <v>845</v>
       </c>
-      <c r="E14" s="16" t="n">
+      <c r="E14" s="46" t="n">
         <v>7793.4751216756</v>
       </c>
-      <c r="F14" s="16" t="n">
+      <c r="F14" s="46" t="n">
         <v>7680.384</v>
       </c>
-      <c r="G14" s="16" t="n">
+      <c r="G14" s="46" t="n">
         <v>1438.2885</v>
       </c>
-      <c r="H14" s="16" t="n">
+      <c r="H14" s="46" t="n">
         <v>8985.01874</v>
       </c>
-      <c r="I14" s="16" t="n">
+      <c r="I14" s="46" t="n">
         <v>751.2794756</v>
       </c>
-      <c r="J14" s="16" t="n">
+      <c r="J14" s="46" t="n">
         <v>-2838.12078737587</v>
       </c>
-      <c r="K14" s="16" t="n">
+      <c r="K14" s="46" t="n">
         <v>-322.33</v>
       </c>
-      <c r="L14" s="16" t="n">
+      <c r="L14" s="46" t="n">
         <v>1583.2004546</v>
       </c>
-      <c r="M14" s="16" t="n">
+      <c r="M14" s="46" t="n">
         <v>1002.23867</v>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="10" t="inlineStr">
+      <c r="A15" s="40" t="inlineStr">
         <is>
           <t>Dividends</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="46" t="n">
         <v>270.95</v>
       </c>
-      <c r="C15" s="16" t="n">
+      <c r="C15" s="46" t="n">
         <v>219.99</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="46" t="n">
         <v>197.26</v>
       </c>
-      <c r="E15" s="16" t="n">
+      <c r="E15" s="46" t="n">
         <v>305.89</v>
       </c>
-      <c r="F15" s="16" t="n">
+      <c r="F15" s="46" t="n">
         <v>365.43</v>
       </c>
-      <c r="G15" s="16" t="n">
+      <c r="G15" s="46" t="n">
         <v>5162.43</v>
       </c>
-      <c r="H15" s="16" t="n">
+      <c r="H15" s="46" t="n">
         <v>1151.39</v>
       </c>
-      <c r="I15" s="16" t="n">
+      <c r="I15" s="46" t="n">
         <v>648.65</v>
       </c>
-      <c r="J15" s="16" t="n">
+      <c r="J15" s="46" t="n">
         <v>1011.37</v>
       </c>
-      <c r="K15" s="16" t="n">
+      <c r="K15" s="46" t="n">
         <v>6511.12</v>
       </c>
-      <c r="L15" s="16" t="n">
+      <c r="L15" s="46" t="n">
         <v>447.01</v>
       </c>
-      <c r="M15" s="16" t="n">
+      <c r="M15" s="46" t="n">
         <v>1050.32</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="10" t="inlineStr">
+      <c r="A16" s="40" t="inlineStr">
         <is>
           <t>Taxes</t>
         </is>
       </c>
-      <c r="B16" s="17" t="inlineStr">
+      <c r="B16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C16" s="16" t="n">
+      <c r="C16" s="46" t="n">
         <v>-37.02</v>
       </c>
-      <c r="D16" s="17" t="inlineStr">
+      <c r="D16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E16" s="17" t="inlineStr">
+      <c r="E16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F16" s="17" t="inlineStr">
+      <c r="F16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G16" s="16" t="n">
+      <c r="G16" s="46" t="n">
         <v>-15.78</v>
       </c>
-      <c r="H16" s="17" t="inlineStr">
+      <c r="H16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I16" s="17" t="inlineStr">
+      <c r="I16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="J16" s="17" t="inlineStr">
+      <c r="J16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K16" s="17" t="inlineStr">
+      <c r="K16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L16" s="17" t="inlineStr">
+      <c r="L16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M16" s="17" t="inlineStr">
+      <c r="M16" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="10" t="inlineStr">
+      <c r="A17" s="40" t="inlineStr">
         <is>
           <t>Commissions</t>
         </is>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="46" t="n">
         <v>-0.79</v>
       </c>
-      <c r="C17" s="16" t="n">
+      <c r="C17" s="46" t="n">
         <v>-1.91</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="46" t="n">
         <v>-0.15</v>
       </c>
-      <c r="E17" s="17" t="inlineStr">
+      <c r="E17" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F17" s="17" t="inlineStr">
+      <c r="F17" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G17" s="16" t="n">
+      <c r="G17" s="46" t="n">
         <v>-1.5</v>
       </c>
-      <c r="H17" s="16" t="n">
+      <c r="H17" s="46" t="n">
         <v>-0.25</v>
       </c>
-      <c r="I17" s="16" t="n">
+      <c r="I17" s="46" t="n">
         <v>-0.1</v>
       </c>
-      <c r="J17" s="17" t="inlineStr">
+      <c r="J17" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K17" s="17" t="inlineStr">
+      <c r="K17" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L17" s="17" t="inlineStr">
+      <c r="L17" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M17" s="17" t="inlineStr">
+      <c r="M17" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="10" t="inlineStr">
+      <c r="A18" s="40" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="46" t="n">
         <v>-5904.36</v>
       </c>
-      <c r="C18" s="16" t="n">
+      <c r="C18" s="46" t="n">
         <v>-1828.09</v>
       </c>
-      <c r="D18" s="16" t="n">
+      <c r="D18" s="46" t="n">
         <v>-3941.4</v>
       </c>
-      <c r="E18" s="17" t="inlineStr">
+      <c r="E18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F18" s="16" t="n">
+      <c r="F18" s="46" t="n">
         <v>-1672</v>
       </c>
-      <c r="G18" s="17" t="inlineStr">
+      <c r="G18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H18" s="17" t="inlineStr">
+      <c r="H18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="I18" s="16" t="n">
+      <c r="I18" s="46" t="n">
         <v>-2900</v>
       </c>
-      <c r="J18" s="17" t="inlineStr">
+      <c r="J18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K18" s="17" t="inlineStr">
+      <c r="K18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="L18" s="17" t="inlineStr">
+      <c r="L18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M18" s="17" t="inlineStr">
+      <c r="M18" s="47" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="17" t="n"/>
-      <c r="C19" s="17" t="n"/>
-      <c r="D19" s="17" t="n"/>
-      <c r="E19" s="17" t="n"/>
-      <c r="F19" s="17" t="n"/>
-      <c r="G19" s="17" t="n"/>
-      <c r="H19" s="17" t="n"/>
-      <c r="I19" s="17" t="n"/>
-      <c r="J19" s="17" t="n"/>
-      <c r="K19" s="17" t="n"/>
-      <c r="L19" s="17" t="n"/>
-      <c r="M19" s="17" t="n"/>
-    </row>
-    <row r="20" ht="18" customFormat="1" customHeight="1" s="3">
-      <c r="A20" s="10" t="inlineStr">
+      <c r="A19" s="40" t="n"/>
+      <c r="B19" s="47" t="n"/>
+      <c r="C19" s="47" t="n"/>
+      <c r="D19" s="47" t="n"/>
+      <c r="E19" s="47" t="n"/>
+      <c r="F19" s="47" t="n"/>
+      <c r="G19" s="47" t="n"/>
+      <c r="H19" s="47" t="n"/>
+      <c r="I19" s="47" t="n"/>
+      <c r="J19" s="47" t="n"/>
+      <c r="K19" s="47" t="n"/>
+      <c r="L19" s="47" t="n"/>
+      <c r="M19" s="47" t="n"/>
+    </row>
+    <row r="20" ht="18" customFormat="1" customHeight="1" s="1">
+      <c r="A20" s="40" t="inlineStr">
         <is>
           <t>Turnover</t>
         </is>
       </c>
-      <c r="B20" s="18" t="n">
+      <c r="B20" s="48" t="n">
         <v>99260.77499999999</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="48" t="n">
         <v>10867.98</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="48" t="n">
         <v>10597.11</v>
       </c>
-      <c r="E20" s="18" t="n">
+      <c r="E20" s="48" t="n">
         <v>183447.04947</v>
       </c>
-      <c r="F20" s="18" t="n">
+      <c r="F20" s="48" t="n">
         <v>441672.51951</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="48" t="n">
         <v>1230642.00518</v>
       </c>
-      <c r="H20" s="18" t="n">
+      <c r="H20" s="48" t="n">
         <v>580854.2707171</v>
       </c>
-      <c r="I20" s="18" t="n">
+      <c r="I20" s="48" t="n">
         <v>562825.9131011</v>
       </c>
-      <c r="J20" s="18" t="n">
+      <c r="J20" s="48" t="n">
         <v>3030321.291775533</v>
       </c>
-      <c r="K20" s="18" t="n">
+      <c r="K20" s="48" t="n">
         <v>84998.14793760001</v>
       </c>
-      <c r="L20" s="18" t="n">
+      <c r="L20" s="48" t="n">
         <v>1272796.8218854</v>
       </c>
-      <c r="M20" s="18" t="n">
+      <c r="M20" s="48" t="n">
         <v>416612.8921195</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="10" t="inlineStr">
+      <c r="A21" s="40" t="inlineStr">
         <is>
           <t>Total purchases</t>
         </is>
       </c>
-      <c r="B21" s="19" t="n">
+      <c r="B21" s="49" t="n">
         <v>49840.47</v>
       </c>
-      <c r="C21" s="19" t="n">
+      <c r="C21" s="49" t="n">
         <v>5574.52</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="49" t="n">
         <v>5447.11</v>
       </c>
-      <c r="E21" s="19" t="n">
+      <c r="E21" s="49" t="n">
         <v>88606.47</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F21" s="49" t="n">
         <v>243571.34551</v>
       </c>
-      <c r="G21" s="19" t="n">
+      <c r="G21" s="49" t="n">
         <v>599545.69518</v>
       </c>
-      <c r="H21" s="19" t="n">
+      <c r="H21" s="49" t="n">
         <v>291879.4367171</v>
       </c>
-      <c r="I21" s="19" t="n">
+      <c r="I21" s="49" t="n">
         <v>279798.6285061</v>
       </c>
-      <c r="J21" s="19" t="n">
+      <c r="J21" s="49" t="n">
         <v>1817887.834440534</v>
       </c>
-      <c r="K21" s="19" t="n">
+      <c r="K21" s="49" t="n">
         <v>29676.4479376</v>
       </c>
-      <c r="L21" s="19" t="n">
+      <c r="L21" s="49" t="n">
         <v>631778.4608254</v>
       </c>
-      <c r="M21" s="19" t="n">
+      <c r="M21" s="49" t="n">
         <v>209298.7921995</v>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="10" t="inlineStr">
+      <c r="A22" s="40" t="inlineStr">
         <is>
           <t>Total sales</t>
         </is>
       </c>
-      <c r="B22" s="19" t="n">
+      <c r="B22" s="49" t="n">
         <v>49420.305</v>
       </c>
-      <c r="C22" s="19" t="n">
+      <c r="C22" s="49" t="n">
         <v>5293.46</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="49" t="n">
         <v>5150</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E22" s="49" t="n">
         <v>94840.57947</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F22" s="49" t="n">
         <v>198101.174</v>
       </c>
-      <c r="G22" s="19" t="n">
+      <c r="G22" s="49" t="n">
         <v>631096.3100000001</v>
       </c>
-      <c r="H22" s="19" t="n">
+      <c r="H22" s="49" t="n">
         <v>288974.834</v>
       </c>
-      <c r="I22" s="19" t="n">
+      <c r="I22" s="49" t="n">
         <v>283027.284595</v>
       </c>
-      <c r="J22" s="19" t="n">
+      <c r="J22" s="49" t="n">
         <v>1212433.457335</v>
       </c>
-      <c r="K22" s="19" t="n">
+      <c r="K22" s="49" t="n">
         <v>55321.7</v>
       </c>
-      <c r="L22" s="19" t="n">
+      <c r="L22" s="49" t="n">
         <v>641018.36106</v>
       </c>
-      <c r="M22" s="19" t="n">
+      <c r="M22" s="49" t="n">
         <v>207314.09992</v>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="10" t="n"/>
-      <c r="B23" s="20" t="n"/>
-      <c r="C23" s="20" t="n"/>
-      <c r="D23" s="20" t="n"/>
-      <c r="E23" s="20" t="n"/>
-      <c r="F23" s="20" t="n"/>
-      <c r="G23" s="20" t="n"/>
-      <c r="H23" s="20" t="n"/>
-      <c r="I23" s="20" t="n"/>
-      <c r="J23" s="20" t="n"/>
-      <c r="K23" s="20" t="n"/>
-      <c r="L23" s="20" t="n"/>
-      <c r="M23" s="20" t="n"/>
-    </row>
-    <row r="24" ht="18" customFormat="1" customHeight="1" s="3">
-      <c r="A24" s="10" t="inlineStr">
+      <c r="A23" s="40" t="n"/>
+      <c r="B23" s="50" t="n"/>
+      <c r="C23" s="50" t="n"/>
+      <c r="D23" s="50" t="n"/>
+      <c r="E23" s="50" t="n"/>
+      <c r="F23" s="50" t="n"/>
+      <c r="G23" s="50" t="n"/>
+      <c r="H23" s="50" t="n"/>
+      <c r="I23" s="50" t="n"/>
+      <c r="J23" s="50" t="n"/>
+      <c r="K23" s="50" t="n"/>
+      <c r="L23" s="50" t="n"/>
+      <c r="M23" s="50" t="n"/>
+    </row>
+    <row r="24" ht="18" customFormat="1" customHeight="1" s="1">
+      <c r="A24" s="40" t="inlineStr">
         <is>
           <t>Total trades</t>
         </is>
       </c>
-      <c r="B24" s="21" t="n">
+      <c r="B24" s="51" t="n">
         <v>41</v>
       </c>
-      <c r="C24" s="21" t="n">
+      <c r="C24" s="51" t="n">
         <v>17</v>
       </c>
-      <c r="D24" s="21" t="n">
+      <c r="D24" s="51" t="n">
         <v>12</v>
       </c>
-      <c r="E24" s="21" t="n">
+      <c r="E24" s="51" t="n">
         <v>45</v>
       </c>
-      <c r="F24" s="21" t="n">
+      <c r="F24" s="51" t="n">
         <v>142</v>
       </c>
-      <c r="G24" s="21" t="n">
+      <c r="G24" s="51" t="n">
         <v>131</v>
       </c>
-      <c r="H24" s="21" t="n">
+      <c r="H24" s="51" t="n">
         <v>181</v>
       </c>
-      <c r="I24" s="21" t="n">
+      <c r="I24" s="51" t="n">
         <v>130</v>
       </c>
-      <c r="J24" s="21" t="n">
+      <c r="J24" s="51" t="n">
         <v>205</v>
       </c>
-      <c r="K24" s="21" t="n">
+      <c r="K24" s="51" t="n">
         <v>79</v>
       </c>
-      <c r="L24" s="21" t="n">
+      <c r="L24" s="51" t="n">
         <v>56</v>
       </c>
-      <c r="M24" s="21" t="n">
+      <c r="M24" s="51" t="n">
         <v>47</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="10" t="inlineStr">
+      <c r="A25" s="40" t="inlineStr">
         <is>
           <t>Buy trades</t>
         </is>
       </c>
-      <c r="B25" s="22" t="n">
+      <c r="B25" s="52" t="n">
         <v>27</v>
       </c>
-      <c r="C25" s="22" t="n">
+      <c r="C25" s="52" t="n">
         <v>13</v>
       </c>
-      <c r="D25" s="22" t="n">
+      <c r="D25" s="52" t="n">
         <v>11</v>
       </c>
-      <c r="E25" s="22" t="n">
+      <c r="E25" s="52" t="n">
         <v>23</v>
       </c>
-      <c r="F25" s="22" t="n">
+      <c r="F25" s="52" t="n">
         <v>89</v>
       </c>
-      <c r="G25" s="22" t="n">
+      <c r="G25" s="52" t="n">
         <v>83</v>
       </c>
-      <c r="H25" s="22" t="n">
+      <c r="H25" s="52" t="n">
         <v>118</v>
       </c>
-      <c r="I25" s="22" t="n">
+      <c r="I25" s="52" t="n">
         <v>77</v>
       </c>
-      <c r="J25" s="22" t="n">
+      <c r="J25" s="52" t="n">
         <v>117</v>
       </c>
-      <c r="K25" s="22" t="n">
+      <c r="K25" s="52" t="n">
         <v>69</v>
       </c>
-      <c r="L25" s="22" t="n">
+      <c r="L25" s="52" t="n">
         <v>33</v>
       </c>
-      <c r="M25" s="22" t="n">
+      <c r="M25" s="52" t="n">
         <v>31</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="10" t="inlineStr">
+      <c r="A26" s="40" t="inlineStr">
         <is>
           <t>Sell trades</t>
         </is>
       </c>
-      <c r="B26" s="22" t="n">
+      <c r="B26" s="52" t="n">
         <v>14</v>
       </c>
-      <c r="C26" s="22" t="n">
+      <c r="C26" s="52" t="n">
         <v>4</v>
       </c>
-      <c r="D26" s="22" t="n">
+      <c r="D26" s="52" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="22" t="n">
+      <c r="E26" s="52" t="n">
         <v>22</v>
       </c>
-      <c r="F26" s="22" t="n">
+      <c r="F26" s="52" t="n">
         <v>53</v>
       </c>
-      <c r="G26" s="22" t="n">
+      <c r="G26" s="52" t="n">
         <v>48</v>
       </c>
-      <c r="H26" s="22" t="n">
+      <c r="H26" s="52" t="n">
         <v>63</v>
       </c>
-      <c r="I26" s="22" t="n">
+      <c r="I26" s="52" t="n">
         <v>53</v>
       </c>
-      <c r="J26" s="22" t="n">
+      <c r="J26" s="52" t="n">
         <v>88</v>
       </c>
-      <c r="K26" s="22" t="n">
+      <c r="K26" s="52" t="n">
         <v>10</v>
       </c>
-      <c r="L26" s="22" t="n">
+      <c r="L26" s="52" t="n">
         <v>23</v>
       </c>
-      <c r="M26" s="22" t="n">
+      <c r="M26" s="52" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="10" t="n"/>
-      <c r="B27" s="23" t="n"/>
-      <c r="C27" s="23" t="n"/>
-      <c r="D27" s="23" t="n"/>
-      <c r="E27" s="23" t="n"/>
-      <c r="F27" s="23" t="n"/>
-      <c r="G27" s="23" t="n"/>
-      <c r="H27" s="23" t="n"/>
-      <c r="I27" s="23" t="n"/>
-      <c r="J27" s="23" t="n"/>
-      <c r="K27" s="23" t="n"/>
-      <c r="L27" s="23" t="n"/>
-      <c r="M27" s="23" t="n"/>
-    </row>
-    <row r="28" ht="18" customFormat="1" customHeight="1" s="3">
-      <c r="A28" s="10" t="inlineStr">
+      <c r="A27" s="40" t="n"/>
+      <c r="B27" s="53" t="n"/>
+      <c r="C27" s="53" t="n"/>
+      <c r="D27" s="53" t="n"/>
+      <c r="E27" s="53" t="n"/>
+      <c r="F27" s="53" t="n"/>
+      <c r="G27" s="53" t="n"/>
+      <c r="H27" s="53" t="n"/>
+      <c r="I27" s="53" t="n"/>
+      <c r="J27" s="53" t="n"/>
+      <c r="K27" s="53" t="n"/>
+      <c r="L27" s="53" t="n"/>
+      <c r="M27" s="53" t="n"/>
+    </row>
+    <row r="28" ht="18" customFormat="1" customHeight="1" s="1">
+      <c r="A28" s="40" t="inlineStr">
         <is>
           <t>Cash funds</t>
         </is>
       </c>
-      <c r="B28" s="24" t="n">
+      <c r="B28" s="54" t="n">
         <v>-6555.66335376961</v>
       </c>
-      <c r="C28" s="24" t="n">
+      <c r="C28" s="54" t="n">
         <v>-6555.66335376961</v>
       </c>
-      <c r="D28" s="24" t="n">
+      <c r="D28" s="54" t="n">
         <v>-6555.66335376961</v>
       </c>
-      <c r="E28" s="24" t="n">
+      <c r="E28" s="54" t="n">
         <v>84.33611623039</v>
       </c>
-      <c r="F28" s="24" t="n">
+      <c r="F28" s="54" t="n">
         <v>-44920.40539376961</v>
       </c>
-      <c r="G28" s="24" t="n">
+      <c r="G28" s="54" t="n">
         <v>-8124.64057376961</v>
       </c>
-      <c r="H28" s="24" t="n">
+      <c r="H28" s="54" t="n">
         <v>-9732.523290869611</v>
       </c>
-      <c r="I28" s="24" t="n">
+      <c r="I28" s="54" t="n">
         <v>-5784.32720196961</v>
       </c>
-      <c r="J28" s="24" t="n">
+      <c r="J28" s="54" t="n">
         <v>-13018.53423750314</v>
       </c>
-      <c r="K28" s="24" t="n">
+      <c r="K28" s="54" t="n">
         <v>-3619.17217510314</v>
       </c>
-      <c r="L28" s="24" t="n">
+      <c r="L28" s="54" t="n">
         <v>6067.73805949686</v>
       </c>
-      <c r="M28" s="24" t="n">
+      <c r="M28" s="54" t="n">
         <v>5133.36577999686</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="10" t="inlineStr">
+      <c r="A29" s="40" t="inlineStr">
         <is>
           <t>Deposited</t>
         </is>
       </c>
-      <c r="B29" s="25" t="n">
+      <c r="B29" s="55" t="n">
         <v>150</v>
       </c>
-      <c r="C29" s="25" t="n">
+      <c r="C29" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="D29" s="25" t="n">
+      <c r="D29" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="E29" s="25" t="n">
+      <c r="E29" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="F29" s="25" t="n">
+      <c r="F29" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="G29" s="25" t="n">
+      <c r="G29" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="H29" s="25" t="n">
+      <c r="H29" s="55" t="n">
         <v>150</v>
       </c>
-      <c r="I29" s="25" t="n">
+      <c r="I29" s="55" t="n">
         <v>100</v>
       </c>
-      <c r="J29" s="25" t="n">
+      <c r="J29" s="55" t="n">
         <v>597208.80007</v>
       </c>
-      <c r="K29" s="25" t="n">
+      <c r="K29" s="55" t="n">
         <v>53.56</v>
       </c>
-      <c r="L29" s="26" t="inlineStr">
+      <c r="L29" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M29" s="26" t="inlineStr">
+      <c r="M29" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="10" t="inlineStr">
+      <c r="A30" s="40" t="inlineStr">
         <is>
           <t>Withdrawn</t>
         </is>
       </c>
-      <c r="B30" s="26" t="inlineStr">
+      <c r="B30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="C30" s="26" t="inlineStr">
+      <c r="C30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="D30" s="26" t="inlineStr">
+      <c r="D30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="E30" s="26" t="inlineStr">
+      <c r="E30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F30" s="26" t="inlineStr">
+      <c r="F30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="G30" s="26" t="inlineStr">
+      <c r="G30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="H30" s="25" t="n">
+      <c r="H30" s="55" t="n">
         <v>4.42</v>
       </c>
-      <c r="I30" s="25" t="n">
+      <c r="I30" s="55" t="n">
         <v>29.01</v>
       </c>
-      <c r="J30" s="26" t="inlineStr">
+      <c r="J30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="K30" s="25" t="n">
+      <c r="K30" s="55" t="n">
         <v>22810.57</v>
       </c>
-      <c r="L30" s="26" t="inlineStr">
+      <c r="L30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="M30" s="26" t="inlineStr">
+      <c r="M30" s="56" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="10" t="inlineStr">
+      <c r="A31" s="40" t="inlineStr">
         <is>
           <t>Available funds</t>
         </is>
       </c>
-      <c r="B31" s="25" t="n">
+      <c r="B31" s="55" t="n">
         <v>-6555.66335376961</v>
       </c>
-      <c r="C31" s="25" t="n">
+      <c r="C31" s="55" t="n">
         <v>-6555.66335376961</v>
       </c>
-      <c r="D31" s="25" t="n">
+      <c r="D31" s="55" t="n">
         <v>-6555.66335376961</v>
       </c>
-      <c r="E31" s="25" t="n">
+      <c r="E31" s="55" t="n">
         <v>84.33611623039</v>
       </c>
-      <c r="F31" s="25" t="n">
+      <c r="F31" s="55" t="n">
         <v>-44920.40539376961</v>
       </c>
-      <c r="G31" s="25" t="n">
+      <c r="G31" s="55" t="n">
         <v>-8124.64057376961</v>
       </c>
-      <c r="H31" s="25" t="n">
+      <c r="H31" s="55" t="n">
         <v>-9732.523290869611</v>
       </c>
-      <c r="I31" s="25" t="n">
+      <c r="I31" s="55" t="n">
         <v>-5784.32720196961</v>
       </c>
-      <c r="J31" s="25" t="n">
+      <c r="J31" s="55" t="n">
         <v>-13018.53423750314</v>
       </c>
-      <c r="K31" s="25" t="n">
+      <c r="K31" s="55" t="n">
         <v>-3619.17217510314</v>
       </c>
-      <c r="L31" s="25" t="n">
+      <c r="L31" s="55" t="n">
         <v>6067.73805949686</v>
       </c>
-      <c r="M31" s="25" t="n">
+      <c r="M31" s="55" t="n">
         <v>5133.36577999686</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="10" t="n"/>
-      <c r="B32" s="26" t="n"/>
-      <c r="C32" s="26" t="n"/>
-      <c r="D32" s="26" t="n"/>
-      <c r="E32" s="26" t="n"/>
-      <c r="F32" s="26" t="n"/>
-      <c r="G32" s="26" t="n"/>
-      <c r="H32" s="26" t="n"/>
-      <c r="I32" s="26" t="n"/>
-      <c r="J32" s="26" t="n"/>
-      <c r="K32" s="26" t="n"/>
-      <c r="L32" s="26" t="n"/>
-      <c r="M32" s="26" t="n"/>
+      <c r="A32" s="40" t="n"/>
+      <c r="B32" s="56" t="n"/>
+      <c r="C32" s="56" t="n"/>
+      <c r="D32" s="56" t="n"/>
+      <c r="E32" s="56" t="n"/>
+      <c r="F32" s="56" t="n"/>
+      <c r="G32" s="56" t="n"/>
+      <c r="H32" s="56" t="n"/>
+      <c r="I32" s="56" t="n"/>
+      <c r="J32" s="56" t="n"/>
+      <c r="K32" s="56" t="n"/>
+      <c r="L32" s="56" t="n"/>
+      <c r="M32" s="56" t="n"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="10" t="n"/>
-      <c r="B33" s="26" t="n"/>
-      <c r="C33" s="26" t="n"/>
-      <c r="D33" s="26" t="n"/>
-      <c r="E33" s="26" t="n"/>
-      <c r="F33" s="26" t="n"/>
-      <c r="G33" s="26" t="n"/>
-      <c r="H33" s="26" t="n"/>
-      <c r="I33" s="26" t="n"/>
-      <c r="J33" s="26" t="n"/>
-      <c r="K33" s="26" t="n"/>
-      <c r="L33" s="26" t="n"/>
-      <c r="M33" s="26" t="n"/>
-    </row>
-    <row r="34" ht="18" customFormat="1" customHeight="1" s="3">
-      <c r="A34" s="10" t="inlineStr">
+      <c r="A33" s="40" t="n"/>
+      <c r="B33" s="56" t="n"/>
+      <c r="C33" s="56" t="n"/>
+      <c r="D33" s="56" t="n"/>
+      <c r="E33" s="56" t="n"/>
+      <c r="F33" s="56" t="n"/>
+      <c r="G33" s="56" t="n"/>
+      <c r="H33" s="56" t="n"/>
+      <c r="I33" s="56" t="n"/>
+      <c r="J33" s="56" t="n"/>
+      <c r="K33" s="56" t="n"/>
+      <c r="L33" s="56" t="n"/>
+      <c r="M33" s="56" t="n"/>
+    </row>
+    <row r="34" ht="18" customFormat="1" customHeight="1" s="1">
+      <c r="A34" s="40" t="inlineStr">
         <is>
           <t>S&amp;P 500 Market Performance</t>
         </is>
       </c>
-      <c r="B34" s="27" t="n">
+      <c r="B34" s="57" t="n">
         <v>-34655.27135165919</v>
       </c>
-      <c r="C34" s="27" t="n">
+      <c r="C34" s="57" t="n">
         <v>-3125.789866504834</v>
       </c>
-      <c r="D34" s="27" t="n">
+      <c r="D34" s="57" t="n">
         <v>35332.12597155511</v>
       </c>
-      <c r="E34" s="27" t="n">
+      <c r="E34" s="57" t="n">
         <v>29027.99932986168</v>
       </c>
-      <c r="F34" s="27" t="n">
+      <c r="F34" s="57" t="n">
         <v>16269.59043355174</v>
       </c>
-      <c r="G34" s="27" t="n">
+      <c r="G34" s="57" t="n">
         <v>13382.78997811353</v>
       </c>
-      <c r="H34" s="27" t="n">
+      <c r="H34" s="57" t="n">
         <v>21666.12505441923</v>
       </c>
-      <c r="I34" s="27" t="n">
+      <c r="I34" s="57" t="n">
         <v>18152.17842261858</v>
       </c>
-      <c r="J34" s="27" t="n">
+      <c r="J34" s="57" t="n">
         <v>1697.485681365851</v>
       </c>
-      <c r="K34" s="27" t="n">
+      <c r="K34" s="57" t="n">
         <v>-2832.22380962135</v>
       </c>
-      <c r="L34" s="27" t="n">
+      <c r="L34" s="57" t="n">
         <v>22448.7206638563</v>
       </c>
-      <c r="M34" s="27" t="n">
+      <c r="M34" s="57" t="n">
         <v>-19152.54152906402</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="10" t="inlineStr">
+      <c r="A35" s="40" t="inlineStr">
         <is>
           <t>S&amp;P 500 Market Performance, %</t>
         </is>
       </c>
-      <c r="B35" s="28" t="n">
+      <c r="B35" s="58" t="n">
         <v>-5.85</v>
       </c>
-      <c r="C35" s="28" t="n">
+      <c r="C35" s="58" t="n">
         <v>-0.5600000000000001</v>
       </c>
-      <c r="D35" s="28" t="n">
+      <c r="D35" s="58" t="n">
         <v>6.28</v>
       </c>
-      <c r="E35" s="28" t="n">
+      <c r="E35" s="58" t="n">
         <v>4.83</v>
       </c>
-      <c r="F35" s="28" t="n">
+      <c r="F35" s="58" t="n">
         <v>2.58</v>
       </c>
-      <c r="G35" s="28" t="n">
+      <c r="G35" s="58" t="n">
         <v>2.05</v>
       </c>
-      <c r="H35" s="28" t="n">
+      <c r="H35" s="58" t="n">
         <v>3.28</v>
       </c>
-      <c r="I35" s="28" t="n">
+      <c r="I35" s="58" t="n">
         <v>2.65</v>
       </c>
-      <c r="J35" s="28" t="n">
+      <c r="J35" s="58" t="n">
         <v>0.13</v>
       </c>
-      <c r="K35" s="28" t="n">
+      <c r="K35" s="58" t="n">
         <v>-0.22</v>
       </c>
-      <c r="L35" s="28" t="n">
+      <c r="L35" s="58" t="n">
         <v>1.76</v>
       </c>
-      <c r="M35" s="28" t="n">
+      <c r="M35" s="58" t="n">
         <v>-1.48</v>
       </c>
     </row>
@@ -2785,6 +4280,6 @@
     <mergeCell ref="A1:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -6,9 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0&quot;%&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -92,8 +91,28 @@
       <color rgb="00FFFFFF"/>
       <sz val="13"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill/>
     </fill>
@@ -218,6 +237,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C5504F"/>
         <bgColor rgb="00C5504F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+        <bgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -376,7 +401,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -527,6 +552,19 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="17" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -625,1445 +663,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="1"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!$H$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Portfolio Value</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
-              <a:solidFill>
-                <a:srgbClr val="1F4788"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <strRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>Mar 25</v>
-                </pt>
-                <pt idx="1">
-                  <v>Apr 25</v>
-                </pt>
-                <pt idx="2">
-                  <v>May 25</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jun 25</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jul 25</v>
-                </pt>
-                <pt idx="5">
-                  <v>Aug 25</v>
-                </pt>
-                <pt idx="6">
-                  <v>Sep 25</v>
-                </pt>
-                <pt idx="7">
-                  <v>Oct 25</v>
-                </pt>
-                <pt idx="8">
-                  <v>Nov 25</v>
-                </pt>
-                <pt idx="9">
-                  <v>Dec 25</v>
-                </pt>
-                <pt idx="10">
-                  <v>Jan 26</v>
-                </pt>
-                <pt idx="11">
-                  <v>Feb 26</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$H$4:$H$15</f>
-              <numCache>
-                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>554754.9286932899</v>
-                </pt>
-                <pt idx="1">
-                  <v>562205.3171438304</v>
-                </pt>
-                <pt idx="2">
-                  <v>601091.0218253548</v>
-                </pt>
-                <pt idx="3">
-                  <v>628557.4543945304</v>
-                </pt>
-                <pt idx="4">
-                  <v>652136.6935154304</v>
-                </pt>
-                <pt idx="5">
-                  <v>661336.8341174951</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>General</formatCode>
-                  <v>682737.1157878836</v>
-                </pt>
-                <pt idx="7">
-                  <formatCode>General</formatCode>
-                  <v>695031.8750224716</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>General</formatCode>
-                  <v>1295993.009552709</v>
-                </pt>
-                <pt idx="9">
-                  <formatCode>General</formatCode>
-                  <v>1271131.079888474</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>General</formatCode>
-                  <v>1296769.487462468</v>
-                </pt>
-                <pt idx="11">
-                  <formatCode>General</formatCode>
-                  <v>1312309.868769997</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!$I$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>S&amp;P Value</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <strRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>Mar 25</v>
-                </pt>
-                <pt idx="1">
-                  <v>Apr 25</v>
-                </pt>
-                <pt idx="2">
-                  <v>May 25</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jun 25</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jul 25</v>
-                </pt>
-                <pt idx="5">
-                  <v>Aug 25</v>
-                </pt>
-                <pt idx="6">
-                  <v>Sep 25</v>
-                </pt>
-                <pt idx="7">
-                  <v>Oct 25</v>
-                </pt>
-                <pt idx="8">
-                  <v>Nov 25</v>
-                </pt>
-                <pt idx="9">
-                  <v>Dec 25</v>
-                </pt>
-                <pt idx="10">
-                  <v>Jan 26</v>
-                </pt>
-                <pt idx="11">
-                  <v>Feb 26</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$4:$I$15</f>
-              <numCache>
-                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>-34655.27135165919</v>
-                </pt>
-                <pt idx="1">
-                  <v>-3125.789866504834</v>
-                </pt>
-                <pt idx="2">
-                  <v>35332.12597155511</v>
-                </pt>
-                <pt idx="3">
-                  <v>29027.99932986168</v>
-                </pt>
-                <pt idx="4">
-                  <v>16269.59043355174</v>
-                </pt>
-                <pt idx="5">
-                  <v>13382.78997811353</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>General</formatCode>
-                  <v>21666.12505441923</v>
-                </pt>
-                <pt idx="7">
-                  <formatCode>General</formatCode>
-                  <v>18152.17842261858</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>General</formatCode>
-                  <v>1697.485681365851</v>
-                </pt>
-                <pt idx="9">
-                  <formatCode>General</formatCode>
-                  <v>-2832.22380962135</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>General</formatCode>
-                  <v>22448.7206638563</v>
-                </pt>
-                <pt idx="11">
-                  <formatCode>General</formatCode>
-                  <v>-19152.54152906402</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <smooth val="0"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="b"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="1"/>
-        </title>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="1"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="1"/>
-        </title>
-        <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="1"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!$H$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Portfolio Value</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
-              <a:solidFill>
-                <a:srgbClr val="1F4788"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <strRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>Mar 25</v>
-                </pt>
-                <pt idx="1">
-                  <v>Apr 25</v>
-                </pt>
-                <pt idx="2">
-                  <v>May 25</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jun 25</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jul 25</v>
-                </pt>
-                <pt idx="5">
-                  <v>Aug 25</v>
-                </pt>
-                <pt idx="6">
-                  <v>Sep 25</v>
-                </pt>
-                <pt idx="7">
-                  <v>Oct 25</v>
-                </pt>
-                <pt idx="8">
-                  <v>Nov 25</v>
-                </pt>
-                <pt idx="9">
-                  <v>Dec 25</v>
-                </pt>
-                <pt idx="10">
-                  <v>Jan 26</v>
-                </pt>
-                <pt idx="11">
-                  <v>Feb 26</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$H$4:$H$15</f>
-              <numCache>
-                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>554754.9286932899</v>
-                </pt>
-                <pt idx="1">
-                  <v>562205.3171438304</v>
-                </pt>
-                <pt idx="2">
-                  <v>601091.0218253548</v>
-                </pt>
-                <pt idx="3">
-                  <v>628557.4543945304</v>
-                </pt>
-                <pt idx="4">
-                  <v>652136.6935154304</v>
-                </pt>
-                <pt idx="5">
-                  <v>661336.8341174951</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>General</formatCode>
-                  <v>682737.1157878836</v>
-                </pt>
-                <pt idx="7">
-                  <formatCode>General</formatCode>
-                  <v>695031.8750224716</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>General</formatCode>
-                  <v>1295993.009552709</v>
-                </pt>
-                <pt idx="9">
-                  <formatCode>General</formatCode>
-                  <v>1271131.079888474</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>General</formatCode>
-                  <v>1296769.487462468</v>
-                </pt>
-                <pt idx="11">
-                  <formatCode>General</formatCode>
-                  <v>1312309.868769997</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!$I$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>S&amp;P Value</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <strRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>Mar 25</v>
-                </pt>
-                <pt idx="1">
-                  <v>Apr 25</v>
-                </pt>
-                <pt idx="2">
-                  <v>May 25</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jun 25</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jul 25</v>
-                </pt>
-                <pt idx="5">
-                  <v>Aug 25</v>
-                </pt>
-                <pt idx="6">
-                  <v>Sep 25</v>
-                </pt>
-                <pt idx="7">
-                  <v>Oct 25</v>
-                </pt>
-                <pt idx="8">
-                  <v>Nov 25</v>
-                </pt>
-                <pt idx="9">
-                  <v>Dec 25</v>
-                </pt>
-                <pt idx="10">
-                  <v>Jan 26</v>
-                </pt>
-                <pt idx="11">
-                  <v>Feb 26</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$4:$I$15</f>
-              <numCache>
-                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>-34655.27135165919</v>
-                </pt>
-                <pt idx="1">
-                  <v>-3125.789866504834</v>
-                </pt>
-                <pt idx="2">
-                  <v>35332.12597155511</v>
-                </pt>
-                <pt idx="3">
-                  <v>29027.99932986168</v>
-                </pt>
-                <pt idx="4">
-                  <v>16269.59043355174</v>
-                </pt>
-                <pt idx="5">
-                  <v>13382.78997811353</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>General</formatCode>
-                  <v>21666.12505441923</v>
-                </pt>
-                <pt idx="7">
-                  <formatCode>General</formatCode>
-                  <v>18152.17842261858</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>General</formatCode>
-                  <v>1697.485681365851</v>
-                </pt>
-                <pt idx="9">
-                  <formatCode>General</formatCode>
-                  <v>-2832.22380962135</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>General</formatCode>
-                  <v>22448.7206638563</v>
-                </pt>
-                <pt idx="11">
-                  <formatCode>General</formatCode>
-                  <v>-19152.54152906402</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <smooth val="0"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="b"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="1"/>
-        </title>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="1"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="1"/>
-        </title>
-        <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Net Worth vs S&amp;P 500 Performance</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-      <overlay val="1"/>
-    </title>
-    <plotArea>
-      <layout/>
-      <lineChart>
-        <grouping val="standard"/>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!$H$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>Portfolio Value</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="25000">
-              <a:solidFill>
-                <a:srgbClr val="1F4788"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <strRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>Mar 25</v>
-                </pt>
-                <pt idx="1">
-                  <v>Apr 25</v>
-                </pt>
-                <pt idx="2">
-                  <v>May 25</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jun 25</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jul 25</v>
-                </pt>
-                <pt idx="5">
-                  <v>Aug 25</v>
-                </pt>
-                <pt idx="6">
-                  <v>Sep 25</v>
-                </pt>
-                <pt idx="7">
-                  <v>Oct 25</v>
-                </pt>
-                <pt idx="8">
-                  <v>Nov 25</v>
-                </pt>
-                <pt idx="9">
-                  <v>Dec 25</v>
-                </pt>
-                <pt idx="10">
-                  <v>Jan 26</v>
-                </pt>
-                <pt idx="11">
-                  <v>Feb 26</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$H$4:$H$15</f>
-              <numCache>
-                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>554754.9286932899</v>
-                </pt>
-                <pt idx="1">
-                  <v>562205.3171438304</v>
-                </pt>
-                <pt idx="2">
-                  <v>601091.0218253548</v>
-                </pt>
-                <pt idx="3">
-                  <v>628557.4543945304</v>
-                </pt>
-                <pt idx="4">
-                  <v>652136.6935154304</v>
-                </pt>
-                <pt idx="5">
-                  <v>661336.8341174951</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>General</formatCode>
-                  <v>682737.1157878836</v>
-                </pt>
-                <pt idx="7">
-                  <formatCode>General</formatCode>
-                  <v>695031.8750224716</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>General</formatCode>
-                  <v>1295993.009552709</v>
-                </pt>
-                <pt idx="9">
-                  <formatCode>General</formatCode>
-                  <v>1271131.079888474</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>General</formatCode>
-                  <v>1296769.487462468</v>
-                </pt>
-                <pt idx="11">
-                  <formatCode>General</formatCode>
-                  <v>1312309.868769997</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!$I$3</f>
-              <strCache>
-                <ptCount val="1"/>
-                <pt idx="0">
-                  <v>S&amp;P Value</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="20000">
-              <a:solidFill>
-                <a:srgbClr val="595959"/>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <strRef>
-              <f>'Executive Summary'!$G$4:$G$15</f>
-              <strCache>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>Mar 25</v>
-                </pt>
-                <pt idx="1">
-                  <v>Apr 25</v>
-                </pt>
-                <pt idx="2">
-                  <v>May 25</v>
-                </pt>
-                <pt idx="3">
-                  <v>Jun 25</v>
-                </pt>
-                <pt idx="4">
-                  <v>Jul 25</v>
-                </pt>
-                <pt idx="5">
-                  <v>Aug 25</v>
-                </pt>
-                <pt idx="6">
-                  <v>Sep 25</v>
-                </pt>
-                <pt idx="7">
-                  <v>Oct 25</v>
-                </pt>
-                <pt idx="8">
-                  <v>Nov 25</v>
-                </pt>
-                <pt idx="9">
-                  <v>Dec 25</v>
-                </pt>
-                <pt idx="10">
-                  <v>Jan 26</v>
-                </pt>
-                <pt idx="11">
-                  <v>Feb 26</v>
-                </pt>
-              </strCache>
-            </strRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$4:$I$15</f>
-              <numCache>
-                <formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</formatCode>
-                <ptCount val="12"/>
-                <pt idx="0">
-                  <v>-34655.27135165919</v>
-                </pt>
-                <pt idx="1">
-                  <v>-3125.789866504834</v>
-                </pt>
-                <pt idx="2">
-                  <v>35332.12597155511</v>
-                </pt>
-                <pt idx="3">
-                  <v>29027.99932986168</v>
-                </pt>
-                <pt idx="4">
-                  <v>16269.59043355174</v>
-                </pt>
-                <pt idx="5">
-                  <v>13382.78997811353</v>
-                </pt>
-                <pt idx="6">
-                  <formatCode>General</formatCode>
-                  <v>21666.12505441923</v>
-                </pt>
-                <pt idx="7">
-                  <formatCode>General</formatCode>
-                  <v>18152.17842261858</v>
-                </pt>
-                <pt idx="8">
-                  <formatCode>General</formatCode>
-                  <v>1697.485681365851</v>
-                </pt>
-                <pt idx="9">
-                  <formatCode>General</formatCode>
-                  <v>-2832.22380962135</v>
-                </pt>
-                <pt idx="10">
-                  <formatCode>General</formatCode>
-                  <v>22448.7206638563</v>
-                </pt>
-                <pt idx="11">
-                  <formatCode>General</formatCode>
-                  <v>-19152.54152906402</v>
-                </pt>
-              </numCache>
-            </numRef>
-          </val>
-          <smooth val="1"/>
-        </ser>
-        <dLbls>
-          <showLegendKey val="0"/>
-          <showVal val="0"/>
-          <showCatName val="0"/>
-          <showSerName val="0"/>
-          <showPercent val="0"/>
-          <showBubbleSize val="0"/>
-        </dLbls>
-        <smooth val="0"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="b"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="1"/>
-        </title>
-        <numFmt formatCode="General" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="100"/>
-        <crosses val="autoZero"/>
-        <auto val="1"/>
-        <lblAlgn val="ctr"/>
-        <lblOffset val="100"/>
-        <noMultiLvlLbl val="1"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <delete val="1"/>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-          <overlay val="1"/>
-        </title>
-        <numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <tickLblPos val="nextTo"/>
-        <crossAx val="10"/>
-        <crosses val="autoZero"/>
-        <crossBetween val="between"/>
-      </valAx>
-    </plotArea>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Portfolio Value vs S&amp;P 500 (Monthly Track)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!I2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:srgbClr val="1F4788"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$H$3:$H$14</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$3:$I$14</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!J2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:srgbClr val="70AD47"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$H$3:$H$14</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$J$3:$J$14</f>
-            </numRef>
-          </val>
-        </ser>
-        <dLbls>
-          <showVal val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Final Position Analysis</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <doughnutChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!I15</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:srgbClr val="1F4788"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dPt>
-            <idx val="1"/>
-            <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:srgbClr val="70AD47"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$H$16:$H$17</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$16:$I$17</f>
-            </numRef>
-          </val>
-        </ser>
-        <firstSliceAng val="0"/>
-        <holeSize val="60"/>
-      </doughnutChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5760000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5760000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>5</col>
-      <colOff>0</colOff>
-      <row>9</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5760000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6480000" cy="3960000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5040000" cy="3960000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2409,29 +1008,31 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="59" t="inlineStr">
         <is>
           <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="28" t="inlineStr">
+      <c r="A2" s="60" t="inlineStr">
         <is>
           <t>Performance Report | As of February 15, 2026</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="6" customHeight="1"/>
+    <row r="3" ht="6" customHeight="1">
+      <c r="A3" s="61" t="n"/>
+    </row>
     <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="29" t="inlineStr">
+      <c r="A4" s="62" t="inlineStr">
         <is>
           <t>💼 PORTFOLIO PERFORMANCE</t>
         </is>
       </c>
     </row>
     <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="63" t="inlineStr">
         <is>
           <t>Total Net Worth (Latest)</t>
         </is>
@@ -2447,7 +1048,7 @@
       <c r="F5" s="33" t="n"/>
     </row>
     <row r="6" ht="24" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="63" t="inlineStr">
         <is>
           <t>Total Profit/Loss (YTD)</t>
         </is>
@@ -2463,7 +1064,7 @@
       <c r="F6" s="33" t="n"/>
     </row>
     <row r="7" ht="24" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="63" t="inlineStr">
         <is>
           <t>Profit %</t>
         </is>
@@ -2479,7 +1080,7 @@
       <c r="F7" s="33" t="n"/>
     </row>
     <row r="8" ht="24" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="A8" s="63" t="inlineStr">
         <is>
           <t>Largest Monthly Gain</t>
         </is>
@@ -2495,7 +1096,7 @@
       <c r="F8" s="33" t="n"/>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="A9" s="63" t="inlineStr">
         <is>
           <t>Largest Monthly Loss</t>
         </is>
@@ -2510,15 +1111,18 @@
       <c r="E9" s="32" t="n"/>
       <c r="F9" s="33" t="n"/>
     </row>
+    <row r="10">
+      <c r="A10" s="61" t="n"/>
+    </row>
     <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="29" t="inlineStr">
+      <c r="A11" s="62" t="inlineStr">
         <is>
           <t>📊 VS. S&amp;P 500 BENCHMARK</t>
         </is>
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
-      <c r="A12" s="30" t="inlineStr">
+      <c r="A12" s="63" t="inlineStr">
         <is>
           <t>Your Portfolio Gain</t>
         </is>
@@ -2534,7 +1138,7 @@
       <c r="F12" s="33" t="n"/>
     </row>
     <row r="13" ht="24" customHeight="1">
-      <c r="A13" s="30" t="inlineStr">
+      <c r="A13" s="63" t="inlineStr">
         <is>
           <t>S&amp;P 500 Gain (Est.)</t>
         </is>
@@ -2550,7 +1154,7 @@
       <c r="F13" s="33" t="n"/>
     </row>
     <row r="14" ht="24" customHeight="1">
-      <c r="A14" s="30" t="inlineStr">
+      <c r="A14" s="63" t="inlineStr">
         <is>
           <t>Outperformance</t>
         </is>
@@ -2566,7 +1170,7 @@
       <c r="F14" s="33" t="n"/>
     </row>
     <row r="15" ht="24" customHeight="1">
-      <c r="A15" s="30" t="inlineStr">
+      <c r="A15" s="63" t="inlineStr">
         <is>
           <t>Your Portfolio %</t>
         </is>
@@ -2582,7 +1186,7 @@
       <c r="F15" s="33" t="n"/>
     </row>
     <row r="16" ht="24" customHeight="1">
-      <c r="A16" s="30" t="inlineStr">
+      <c r="A16" s="63" t="inlineStr">
         <is>
           <t>S&amp;P 500 %</t>
         </is>
@@ -2608,8 +1212,8 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B13:F13"/>
@@ -2619,321 +1223,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J17"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12.42578125" customWidth="1" min="5" max="5"/>
-    <col width="12.42578125" customWidth="1" min="7" max="7"/>
-    <col width="18.85546875" customWidth="1" min="8" max="8"/>
-    <col width="15.5703125" customWidth="1" min="9" max="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="24.95" customHeight="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="6" t="n"/>
-    </row>
-    <row r="2" ht="8.1" customHeight="1">
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Your Portfolio</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>S&amp;P 500</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PORTFOLIO PERFORMANCE</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Month</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mar 25</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>554754.9286932899</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-34655.27135165919</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Mar 25</t>
-        </is>
-      </c>
-      <c r="H4" s="36" t="inlineStr">
-        <is>
-          <t>Apr 25</t>
-        </is>
-      </c>
-      <c r="I4" s="36" t="n">
-        <v>562205.3171438304</v>
-      </c>
-      <c r="J4" t="n">
-        <v>-3125.789866504834</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Apr 25</t>
-        </is>
-      </c>
-      <c r="H5" s="36" t="inlineStr">
-        <is>
-          <t>May 25</t>
-        </is>
-      </c>
-      <c r="I5" s="36" t="n">
-        <v>601091.0218253548</v>
-      </c>
-      <c r="J5" t="n">
-        <v>35332.12597155511</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>May 25</t>
-        </is>
-      </c>
-      <c r="H6" s="36" t="inlineStr">
-        <is>
-          <t>Jun 25</t>
-        </is>
-      </c>
-      <c r="I6" s="36" t="n">
-        <v>628557.4543945304</v>
-      </c>
-      <c r="J6" t="n">
-        <v>29027.99932986168</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Jun 25</t>
-        </is>
-      </c>
-      <c r="H7" s="36" t="inlineStr">
-        <is>
-          <t>Jul 25</t>
-        </is>
-      </c>
-      <c r="I7" s="36" t="n">
-        <v>652136.6935154304</v>
-      </c>
-      <c r="J7" t="n">
-        <v>16269.59043355174</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Jul 25</t>
-        </is>
-      </c>
-      <c r="H8" s="36" t="inlineStr">
-        <is>
-          <t>Aug 25</t>
-        </is>
-      </c>
-      <c r="I8" s="36" t="n">
-        <v>661336.8341174951</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13382.78997811353</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Aug 25</t>
-        </is>
-      </c>
-      <c r="H9" s="36" t="inlineStr">
-        <is>
-          <t>Sep 25</t>
-        </is>
-      </c>
-      <c r="I9" s="36" t="n">
-        <v>682737.1157878836</v>
-      </c>
-      <c r="J9" t="n">
-        <v>21666.12505441923</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Sep 25</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Oct 25</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>695031.8750224716</v>
-      </c>
-      <c r="J10" t="n">
-        <v>18152.17842261858</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Oct 25</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Nov 25</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1295993.009552709</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1697.485681365851</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Nov 25</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Dec 25</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>1271131.079888474</v>
-      </c>
-      <c r="J12" t="n">
-        <v>-2832.22380962135</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Dec 25</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Jan 26</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1296769.487462468</v>
-      </c>
-      <c r="J13" t="n">
-        <v>22448.7206638563</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Jan 26</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Feb 26</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1312309.868769997</v>
-      </c>
-      <c r="J14" t="n">
-        <v>-19152.54152906402</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Feb 26</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Outperformance</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1331462.410299061</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Level</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>-19152.54152906402</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -665,6 +665,272 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Value vs S&amp;P 500 (Monthly Track)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!I2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="1F4788"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$3:$H$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$I$3:$I$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!J2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$3:$H$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$J$3:$J$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <dLbls>
+          <showVal val="0"/>
+        </dLbls>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Month</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Final Position Analysis</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <doughnutChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!I15</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="1F4788"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <dPt>
+            <idx val="1"/>
+            <spPr>
+              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </dPt>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$16:$H$17</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$I$16:$I$17</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+        <holeSize val="60"/>
+      </doughnutChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>19</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5040000" cy="3960000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -991,7 +1257,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,31 +1274,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="59" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
         </is>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="60" t="inlineStr">
+      <c r="A2" s="28" t="inlineStr">
         <is>
           <t>Performance Report | As of February 15, 2026</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Month</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Your Portfolio</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>S&amp;P 500</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="6" customHeight="1">
-      <c r="A3" s="61" t="n"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Mar 25</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>554754.9286932899</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-34655.27135165919</v>
+      </c>
     </row>
     <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="62" t="inlineStr">
+      <c r="A4" s="29" t="inlineStr">
         <is>
           <t>💼 PORTFOLIO PERFORMANCE</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Apr 25</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>562205.3171438304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-3125.789866504834</v>
+      </c>
     </row>
     <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="63" t="inlineStr">
+      <c r="A5" s="30" t="inlineStr">
         <is>
           <t>Total Net Worth (Latest)</t>
         </is>
@@ -1046,41 +1348,74 @@
       <c r="D5" s="32" t="n"/>
       <c r="E5" s="32" t="n"/>
       <c r="F5" s="33" t="n"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>May 25</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>601091.0218253548</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35332.12597155511</v>
+      </c>
     </row>
     <row r="6" ht="24" customHeight="1">
-      <c r="A6" s="63" t="inlineStr">
+      <c r="A6" s="30" t="inlineStr">
         <is>
           <t>Total Profit/Loss (YTD)</t>
         </is>
       </c>
       <c r="B6" s="34" t="inlineStr">
         <is>
-          <t>$15,540.38</t>
+          <t>$145,159.89</t>
         </is>
       </c>
       <c r="C6" s="32" t="n"/>
       <c r="D6" s="32" t="n"/>
       <c r="E6" s="32" t="n"/>
       <c r="F6" s="33" t="n"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Jun 25</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>628557.4543945304</v>
+      </c>
+      <c r="J6" t="n">
+        <v>29027.99932986168</v>
+      </c>
     </row>
     <row r="7" ht="24" customHeight="1">
-      <c r="A7" s="63" t="inlineStr">
+      <c r="A7" s="30" t="inlineStr">
         <is>
           <t>Profit %</t>
         </is>
       </c>
       <c r="B7" s="31" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>26.17%</t>
         </is>
       </c>
       <c r="C7" s="32" t="n"/>
       <c r="D7" s="32" t="n"/>
       <c r="E7" s="32" t="n"/>
       <c r="F7" s="33" t="n"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jul 25</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>652136.6935154304</v>
+      </c>
+      <c r="J7" t="n">
+        <v>16269.59043355174</v>
+      </c>
     </row>
     <row r="8" ht="24" customHeight="1">
-      <c r="A8" s="63" t="inlineStr">
+      <c r="A8" s="30" t="inlineStr">
         <is>
           <t>Largest Monthly Gain</t>
         </is>
@@ -1094,9 +1429,20 @@
       <c r="D8" s="32" t="n"/>
       <c r="E8" s="32" t="n"/>
       <c r="F8" s="33" t="n"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Aug 25</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>661336.8341174951</v>
+      </c>
+      <c r="J8" t="n">
+        <v>13382.78997811353</v>
+      </c>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="A9" s="63" t="inlineStr">
+      <c r="A9" s="30" t="inlineStr">
         <is>
           <t>Largest Monthly Loss</t>
         </is>
@@ -1110,96 +1456,189 @@
       <c r="D9" s="32" t="n"/>
       <c r="E9" s="32" t="n"/>
       <c r="F9" s="33" t="n"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sep 25</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>682737.1157878836</v>
+      </c>
+      <c r="J9" t="n">
+        <v>21666.12505441923</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="61" t="n"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Oct 25</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>695031.8750224716</v>
+      </c>
+      <c r="J10" t="n">
+        <v>18152.17842261858</v>
+      </c>
     </row>
     <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="62" t="inlineStr">
+      <c r="A11" s="29" t="inlineStr">
         <is>
           <t>📊 VS. S&amp;P 500 BENCHMARK</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nov 25</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>1295993.009552709</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1697.485681365851</v>
+      </c>
     </row>
     <row r="12" ht="24" customHeight="1">
-      <c r="A12" s="63" t="inlineStr">
+      <c r="A12" s="30" t="inlineStr">
         <is>
           <t>Your Portfolio Gain</t>
         </is>
       </c>
       <c r="B12" s="34" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$757,554.94</t>
         </is>
       </c>
       <c r="C12" s="32" t="n"/>
       <c r="D12" s="32" t="n"/>
       <c r="E12" s="32" t="n"/>
       <c r="F12" s="33" t="n"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Dec 25</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>1271131.079888474</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2832.22380962135</v>
+      </c>
     </row>
     <row r="13" ht="24" customHeight="1">
-      <c r="A13" s="63" t="inlineStr">
+      <c r="A13" s="30" t="inlineStr">
         <is>
           <t>S&amp;P 500 Gain (Est.)</t>
         </is>
       </c>
       <c r="B13" s="31" t="inlineStr">
         <is>
-          <t>$-19,152.54</t>
+          <t>$15,502.73</t>
         </is>
       </c>
       <c r="C13" s="32" t="n"/>
       <c r="D13" s="32" t="n"/>
       <c r="E13" s="32" t="n"/>
       <c r="F13" s="33" t="n"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Jan 26</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>1296769.487462468</v>
+      </c>
+      <c r="J13" t="n">
+        <v>22448.7206638563</v>
+      </c>
     </row>
     <row r="14" ht="24" customHeight="1">
-      <c r="A14" s="63" t="inlineStr">
+      <c r="A14" s="30" t="inlineStr">
         <is>
           <t>Outperformance</t>
         </is>
       </c>
       <c r="B14" s="34" t="inlineStr">
         <is>
-          <t>$34,692.92</t>
+          <t>$742,052.21</t>
         </is>
       </c>
       <c r="C14" s="32" t="n"/>
       <c r="D14" s="32" t="n"/>
       <c r="E14" s="32" t="n"/>
       <c r="F14" s="33" t="n"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Feb 26</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>1312309.868769997</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-19152.54152906402</v>
+      </c>
     </row>
     <row r="15" ht="24" customHeight="1">
-      <c r="A15" s="63" t="inlineStr">
+      <c r="A15" s="30" t="inlineStr">
         <is>
           <t>Your Portfolio %</t>
         </is>
       </c>
       <c r="B15" s="34" t="inlineStr">
         <is>
-          <t>1.20%</t>
+          <t>136.56%</t>
         </is>
       </c>
       <c r="C15" s="32" t="n"/>
       <c r="D15" s="32" t="n"/>
       <c r="E15" s="32" t="n"/>
       <c r="F15" s="33" t="n"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="24" customHeight="1">
-      <c r="A16" s="63" t="inlineStr">
+      <c r="A16" s="30" t="inlineStr">
         <is>
           <t>S&amp;P 500 %</t>
         </is>
       </c>
       <c r="B16" s="31" t="inlineStr">
         <is>
-          <t>-1.48%</t>
+          <t>-44.73%</t>
         </is>
       </c>
       <c r="C16" s="32" t="n"/>
       <c r="D16" s="32" t="n"/>
       <c r="E16" s="32" t="n"/>
       <c r="F16" s="33" t="n"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Outperformance</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>1331462.410299061</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 Level</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>-19152.54152906402</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1212,13 +1651,14 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B14:F14"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -401,7 +401,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -565,6 +565,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="22" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -754,21 +757,6 @@
           <orientation val="minMax"/>
         </scaling>
         <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Month</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="100"/>
@@ -810,88 +798,16 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Final Position Analysis</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <doughnutChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!I15</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:srgbClr val="1F4788"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <dPt>
-            <idx val="1"/>
-            <spPr>
-              <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:srgbClr val="70AD47"/>
-              </a:solidFill>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </dPt>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$H$16:$H$17</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$16:$I$17</f>
-            </numRef>
-          </val>
-        </ser>
-        <firstSliceAng val="0"/>
-        <holeSize val="60"/>
-      </doughnutChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>19</row>
+      <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6480000" cy="3960000"/>
+    <ext cx="7200000" cy="4320000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -901,28 +817,6 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>9</col>
-      <colOff>0</colOff>
-      <row>19</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5040000" cy="3960000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1257,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1595,16 +1489,6 @@
       <c r="D15" s="32" t="n"/>
       <c r="E15" s="32" t="n"/>
       <c r="F15" s="33" t="n"/>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
     </row>
     <row r="16" ht="24" customHeight="1">
       <c r="A16" s="30" t="inlineStr">
@@ -1621,24 +1505,6 @@
       <c r="D16" s="32" t="n"/>
       <c r="E16" s="32" t="n"/>
       <c r="F16" s="33" t="n"/>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Outperformance</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>1331462.410299061</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Level</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>-19152.54152906402</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -1772,7 +1638,7 @@
       </c>
     </row>
     <row r="5" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A5" s="40" t="inlineStr">
+      <c r="A5" s="64" t="inlineStr">
         <is>
           <t>Portfolio value</t>
         </is>
@@ -1815,7 +1681,7 @@
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="40" t="inlineStr">
+      <c r="A6" s="64" t="inlineStr">
         <is>
           <t>At the beginning of the period</t>
         </is>
@@ -1858,7 +1724,7 @@
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="40" t="inlineStr">
+      <c r="A7" s="64" t="inlineStr">
         <is>
           <t>At the end of the period</t>
         </is>
@@ -1901,7 +1767,7 @@
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="40" t="inlineStr">
+      <c r="A8" s="64" t="inlineStr">
         <is>
           <t>Change</t>
         </is>
@@ -1944,7 +1810,7 @@
       </c>
     </row>
     <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="40" t="n"/>
+      <c r="A9" s="64" t="n"/>
       <c r="B9" s="43" t="n"/>
       <c r="C9" s="43" t="n"/>
       <c r="D9" s="43" t="n"/>
@@ -1959,7 +1825,7 @@
       <c r="M9" s="43" t="n"/>
     </row>
     <row r="10" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A10" s="40" t="inlineStr">
+      <c r="A10" s="64" t="inlineStr">
         <is>
           <t>Total profit</t>
         </is>
@@ -2002,7 +1868,7 @@
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="40" t="inlineStr">
+      <c r="A11" s="64" t="inlineStr">
         <is>
           <t>Total profit, %</t>
         </is>
@@ -2045,7 +1911,7 @@
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="40" t="inlineStr">
+      <c r="A12" s="64" t="inlineStr">
         <is>
           <t>Net profit from sales</t>
         </is>
@@ -2088,7 +1954,7 @@
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="40" t="inlineStr">
+      <c r="A13" s="64" t="inlineStr">
         <is>
           <t>Profit from price change</t>
         </is>
@@ -2131,7 +1997,7 @@
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="40" t="inlineStr">
+      <c r="A14" s="64" t="inlineStr">
         <is>
           <t>Profit from sales</t>
         </is>
@@ -2174,7 +2040,7 @@
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="40" t="inlineStr">
+      <c r="A15" s="64" t="inlineStr">
         <is>
           <t>Dividends</t>
         </is>
@@ -2217,7 +2083,7 @@
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="40" t="inlineStr">
+      <c r="A16" s="64" t="inlineStr">
         <is>
           <t>Taxes</t>
         </is>
@@ -2280,7 +2146,7 @@
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="40" t="inlineStr">
+      <c r="A17" s="64" t="inlineStr">
         <is>
           <t>Commissions</t>
         </is>
@@ -2335,7 +2201,7 @@
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="40" t="inlineStr">
+      <c r="A18" s="64" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
@@ -2392,7 +2258,7 @@
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="40" t="n"/>
+      <c r="A19" s="64" t="n"/>
       <c r="B19" s="47" t="n"/>
       <c r="C19" s="47" t="n"/>
       <c r="D19" s="47" t="n"/>
@@ -2407,7 +2273,7 @@
       <c r="M19" s="47" t="n"/>
     </row>
     <row r="20" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A20" s="40" t="inlineStr">
+      <c r="A20" s="64" t="inlineStr">
         <is>
           <t>Turnover</t>
         </is>
@@ -2450,7 +2316,7 @@
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="40" t="inlineStr">
+      <c r="A21" s="64" t="inlineStr">
         <is>
           <t>Total purchases</t>
         </is>
@@ -2493,7 +2359,7 @@
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="40" t="inlineStr">
+      <c r="A22" s="64" t="inlineStr">
         <is>
           <t>Total sales</t>
         </is>
@@ -2536,7 +2402,7 @@
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="40" t="n"/>
+      <c r="A23" s="64" t="n"/>
       <c r="B23" s="50" t="n"/>
       <c r="C23" s="50" t="n"/>
       <c r="D23" s="50" t="n"/>
@@ -2551,7 +2417,7 @@
       <c r="M23" s="50" t="n"/>
     </row>
     <row r="24" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A24" s="40" t="inlineStr">
+      <c r="A24" s="64" t="inlineStr">
         <is>
           <t>Total trades</t>
         </is>
@@ -2594,7 +2460,7 @@
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="40" t="inlineStr">
+      <c r="A25" s="64" t="inlineStr">
         <is>
           <t>Buy trades</t>
         </is>
@@ -2637,7 +2503,7 @@
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="40" t="inlineStr">
+      <c r="A26" s="64" t="inlineStr">
         <is>
           <t>Sell trades</t>
         </is>
@@ -2680,7 +2546,7 @@
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="40" t="n"/>
+      <c r="A27" s="64" t="n"/>
       <c r="B27" s="53" t="n"/>
       <c r="C27" s="53" t="n"/>
       <c r="D27" s="53" t="n"/>
@@ -2695,7 +2561,7 @@
       <c r="M27" s="53" t="n"/>
     </row>
     <row r="28" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A28" s="40" t="inlineStr">
+      <c r="A28" s="64" t="inlineStr">
         <is>
           <t>Cash funds</t>
         </is>
@@ -2738,7 +2604,7 @@
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="40" t="inlineStr">
+      <c r="A29" s="64" t="inlineStr">
         <is>
           <t>Deposited</t>
         </is>
@@ -2785,7 +2651,7 @@
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="40" t="inlineStr">
+      <c r="A30" s="64" t="inlineStr">
         <is>
           <t>Withdrawn</t>
         </is>
@@ -2846,7 +2712,7 @@
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="40" t="inlineStr">
+      <c r="A31" s="64" t="inlineStr">
         <is>
           <t>Available funds</t>
         </is>
@@ -2889,7 +2755,7 @@
       </c>
     </row>
     <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="40" t="n"/>
+      <c r="A32" s="64" t="n"/>
       <c r="B32" s="56" t="n"/>
       <c r="C32" s="56" t="n"/>
       <c r="D32" s="56" t="n"/>
@@ -2904,7 +2770,7 @@
       <c r="M32" s="56" t="n"/>
     </row>
     <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="40" t="n"/>
+      <c r="A33" s="64" t="n"/>
       <c r="B33" s="56" t="n"/>
       <c r="C33" s="56" t="n"/>
       <c r="D33" s="56" t="n"/>
@@ -2919,7 +2785,7 @@
       <c r="M33" s="56" t="n"/>
     </row>
     <row r="34" ht="18" customFormat="1" customHeight="1" s="1">
-      <c r="A34" s="40" t="inlineStr">
+      <c r="A34" s="64" t="inlineStr">
         <is>
           <t>S&amp;P 500 Market Performance</t>
         </is>
@@ -2962,7 +2828,7 @@
       </c>
     </row>
     <row r="35" ht="18" customHeight="1">
-      <c r="A35" s="40" t="inlineStr">
+      <c r="A35" s="64" t="inlineStr">
         <is>
           <t>S&amp;P 500 Market Performance, %</t>
         </is>

--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -6,8 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -798,6 +799,134 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Portfolio Value vs S&amp;P 500 (Monthly Track)</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!I2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="1F4788"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$3:$H$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$I$3:$I$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <ser>
+          <idx val="1"/>
+          <order val="1"/>
+          <tx>
+            <strRef>
+              <f>'Executive Summary'!J2</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:srgbClr val="70AD47"/>
+            </a:solidFill>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Executive Summary'!$H$3:$H$14</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Executive Summary'!$J$3:$J$14</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <delete val="0"/>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Value ($)</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="b"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -817,6 +946,28 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="6480000" cy="3600000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1151,6 +1302,238 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="28" customWidth="1" min="1" max="1"/>
+    <col width="18" customWidth="1" min="2" max="2"/>
+    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="5" max="5"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="27" t="inlineStr">
+        <is>
+          <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1">
+      <c r="A2" s="28" t="inlineStr">
+        <is>
+          <t>Performance Report | As of February 15, 2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="6" customHeight="1"/>
+    <row r="4" ht="22" customHeight="1">
+      <c r="A4" s="29" t="inlineStr">
+        <is>
+          <t>💼 PORTFOLIO PERFORMANCE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="24" customHeight="1">
+      <c r="A5" s="30" t="inlineStr">
+        <is>
+          <t>Total Net Worth (Latest)</t>
+        </is>
+      </c>
+      <c r="B5" s="31" t="inlineStr">
+        <is>
+          <t>$1,312,309.87</t>
+        </is>
+      </c>
+      <c r="C5" s="32" t="n"/>
+      <c r="D5" s="32" t="n"/>
+      <c r="E5" s="32" t="n"/>
+      <c r="F5" s="33" t="n"/>
+    </row>
+    <row r="6" ht="24" customHeight="1">
+      <c r="A6" s="30" t="inlineStr">
+        <is>
+          <t>Total Profit/Loss (YTD)</t>
+        </is>
+      </c>
+      <c r="B6" s="34" t="inlineStr">
+        <is>
+          <t>$145,159.89</t>
+        </is>
+      </c>
+      <c r="C6" s="32" t="n"/>
+      <c r="D6" s="32" t="n"/>
+      <c r="E6" s="32" t="n"/>
+      <c r="F6" s="33" t="n"/>
+    </row>
+    <row r="7" ht="24" customHeight="1">
+      <c r="A7" s="30" t="inlineStr">
+        <is>
+          <t>Profit %</t>
+        </is>
+      </c>
+      <c r="B7" s="31" t="inlineStr">
+        <is>
+          <t>26.17%</t>
+        </is>
+      </c>
+      <c r="C7" s="32" t="n"/>
+      <c r="D7" s="32" t="n"/>
+      <c r="E7" s="32" t="n"/>
+      <c r="F7" s="33" t="n"/>
+    </row>
+    <row r="8" ht="24" customHeight="1">
+      <c r="A8" s="30" t="inlineStr">
+        <is>
+          <t>Largest Monthly Gain</t>
+        </is>
+      </c>
+      <c r="B8" s="34" t="inlineStr">
+        <is>
+          <t>$38,785.70</t>
+        </is>
+      </c>
+      <c r="C8" s="32" t="n"/>
+      <c r="D8" s="32" t="n"/>
+      <c r="E8" s="32" t="n"/>
+      <c r="F8" s="33" t="n"/>
+    </row>
+    <row r="9" ht="24" customHeight="1">
+      <c r="A9" s="30" t="inlineStr">
+        <is>
+          <t>Largest Monthly Loss</t>
+        </is>
+      </c>
+      <c r="B9" s="35" t="inlineStr">
+        <is>
+          <t>$-37,226.69</t>
+        </is>
+      </c>
+      <c r="C9" s="32" t="n"/>
+      <c r="D9" s="32" t="n"/>
+      <c r="E9" s="32" t="n"/>
+      <c r="F9" s="33" t="n"/>
+    </row>
+    <row r="11" ht="22" customHeight="1">
+      <c r="A11" s="29" t="inlineStr">
+        <is>
+          <t>📊 VS. S&amp;P 500 BENCHMARK</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="24" customHeight="1">
+      <c r="A12" s="30" t="inlineStr">
+        <is>
+          <t>Your Portfolio Gain</t>
+        </is>
+      </c>
+      <c r="B12" s="34" t="inlineStr">
+        <is>
+          <t>$757,554.94</t>
+        </is>
+      </c>
+      <c r="C12" s="32" t="n"/>
+      <c r="D12" s="32" t="n"/>
+      <c r="E12" s="32" t="n"/>
+      <c r="F12" s="33" t="n"/>
+    </row>
+    <row r="13" ht="24" customHeight="1">
+      <c r="A13" s="30" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 Gain (Est.)</t>
+        </is>
+      </c>
+      <c r="B13" s="31" t="inlineStr">
+        <is>
+          <t>$15,502.73</t>
+        </is>
+      </c>
+      <c r="C13" s="32" t="n"/>
+      <c r="D13" s="32" t="n"/>
+      <c r="E13" s="32" t="n"/>
+      <c r="F13" s="33" t="n"/>
+    </row>
+    <row r="14" ht="24" customHeight="1">
+      <c r="A14" s="30" t="inlineStr">
+        <is>
+          <t>Outperformance</t>
+        </is>
+      </c>
+      <c r="B14" s="34" t="inlineStr">
+        <is>
+          <t>$742,052.21</t>
+        </is>
+      </c>
+      <c r="C14" s="32" t="n"/>
+      <c r="D14" s="32" t="n"/>
+      <c r="E14" s="32" t="n"/>
+      <c r="F14" s="33" t="n"/>
+    </row>
+    <row r="15" ht="24" customHeight="1">
+      <c r="A15" s="30" t="inlineStr">
+        <is>
+          <t>Your Portfolio %</t>
+        </is>
+      </c>
+      <c r="B15" s="34" t="inlineStr">
+        <is>
+          <t>136.56%</t>
+        </is>
+      </c>
+      <c r="C15" s="32" t="n"/>
+      <c r="D15" s="32" t="n"/>
+      <c r="E15" s="32" t="n"/>
+      <c r="F15" s="33" t="n"/>
+    </row>
+    <row r="16" ht="24" customHeight="1">
+      <c r="A16" s="30" t="inlineStr">
+        <is>
+          <t>S&amp;P 500 %</t>
+        </is>
+      </c>
+      <c r="B16" s="31" t="inlineStr">
+        <is>
+          <t>-44.73%</t>
+        </is>
+      </c>
+      <c r="C16" s="32" t="n"/>
+      <c r="D16" s="32" t="n"/>
+      <c r="E16" s="32" t="n"/>
+      <c r="F16" s="33" t="n"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B13:F13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1517,8 +1900,8 @@
     <mergeCell ref="B15:F15"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B13:F13"/>
@@ -1528,7 +1911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -745,136 +745,6 @@
             </numRef>
           </val>
         </ser>
-        <dLbls>
-          <showVal val="0"/>
-        </dLbls>
-        <gapWidth val="150"/>
-        <axId val="10"/>
-        <axId val="100"/>
-      </barChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Value ($)</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="b"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Portfolio Value vs S&amp;P 500 (Monthly Track)</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <barChart>
-        <barDir val="col"/>
-        <grouping val="clustered"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!I2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:srgbClr val="1F4788"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$H$3:$H$14</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$I$3:$I$14</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <tx>
-            <strRef>
-              <f>'Executive Summary'!J2</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:srgbClr val="70AD47"/>
-            </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'Executive Summary'!$H$3:$H$14</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'Executive Summary'!$J$3:$J$14</f>
-            </numRef>
-          </val>
-        </ser>
         <gapWidth val="150"/>
         <axId val="10"/>
         <axId val="100"/>
@@ -936,7 +806,7 @@
       <row>17</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="7200000" cy="4320000"/>
+    <ext cx="6480000" cy="3600000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -946,28 +816,6 @@
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>17</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="6480000" cy="3600000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/Portfolio report_My Net Worth_15.02.2026.xlsx
+++ b/Portfolio report_My Net Worth_15.02.2026.xlsx
@@ -6,9 +6,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Data" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -402,7 +401,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -569,6 +568,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1150,238 +1155,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="28" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
-    <col width="18" customWidth="1" min="5" max="5"/>
-    <col width="18" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" customHeight="1">
-      <c r="A1" s="27" t="inlineStr">
-        <is>
-          <t>NET WORTH CONSOLIDATION - EXECUTIVE SUMMARY</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="28" t="inlineStr">
-        <is>
-          <t>Performance Report | As of February 15, 2026</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="6" customHeight="1"/>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" s="29" t="inlineStr">
-        <is>
-          <t>💼 PORTFOLIO PERFORMANCE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
-        <is>
-          <t>Total Net Worth (Latest)</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="inlineStr">
-        <is>
-          <t>$1,312,309.87</t>
-        </is>
-      </c>
-      <c r="C5" s="32" t="n"/>
-      <c r="D5" s="32" t="n"/>
-      <c r="E5" s="32" t="n"/>
-      <c r="F5" s="33" t="n"/>
-    </row>
-    <row r="6" ht="24" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
-        <is>
-          <t>Total Profit/Loss (YTD)</t>
-        </is>
-      </c>
-      <c r="B6" s="34" t="inlineStr">
-        <is>
-          <t>$145,159.89</t>
-        </is>
-      </c>
-      <c r="C6" s="32" t="n"/>
-      <c r="D6" s="32" t="n"/>
-      <c r="E6" s="32" t="n"/>
-      <c r="F6" s="33" t="n"/>
-    </row>
-    <row r="7" ht="24" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
-        <is>
-          <t>Profit %</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="inlineStr">
-        <is>
-          <t>26.17%</t>
-        </is>
-      </c>
-      <c r="C7" s="32" t="n"/>
-      <c r="D7" s="32" t="n"/>
-      <c r="E7" s="32" t="n"/>
-      <c r="F7" s="33" t="n"/>
-    </row>
-    <row r="8" ht="24" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
-        <is>
-          <t>Largest Monthly Gain</t>
-        </is>
-      </c>
-      <c r="B8" s="34" t="inlineStr">
-        <is>
-          <t>$38,785.70</t>
-        </is>
-      </c>
-      <c r="C8" s="32" t="n"/>
-      <c r="D8" s="32" t="n"/>
-      <c r="E8" s="32" t="n"/>
-      <c r="F8" s="33" t="n"/>
-    </row>
-    <row r="9" ht="24" customHeight="1">
-      <c r="A9" s="30" t="inlineStr">
-        <is>
-          <t>Largest Monthly Loss</t>
-        </is>
-      </c>
-      <c r="B9" s="35" t="inlineStr">
-        <is>
-          <t>$-37,226.69</t>
-        </is>
-      </c>
-      <c r="C9" s="32" t="n"/>
-      <c r="D9" s="32" t="n"/>
-      <c r="E9" s="32" t="n"/>
-      <c r="F9" s="33" t="n"/>
-    </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="29" t="inlineStr">
-        <is>
-          <t>📊 VS. S&amp;P 500 BENCHMARK</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="24" customHeight="1">
-      <c r="A12" s="30" t="inlineStr">
-        <is>
-          <t>Your Portfolio Gain</t>
-        </is>
-      </c>
-      <c r="B12" s="34" t="inlineStr">
-        <is>
-          <t>$757,554.94</t>
-        </is>
-      </c>
-      <c r="C12" s="32" t="n"/>
-      <c r="D12" s="32" t="n"/>
-      <c r="E12" s="32" t="n"/>
-      <c r="F12" s="33" t="n"/>
-    </row>
-    <row r="13" ht="24" customHeight="1">
-      <c r="A13" s="30" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 Gain (Est.)</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="inlineStr">
-        <is>
-          <t>$15,502.73</t>
-        </is>
-      </c>
-      <c r="C13" s="32" t="n"/>
-      <c r="D13" s="32" t="n"/>
-      <c r="E13" s="32" t="n"/>
-      <c r="F13" s="33" t="n"/>
-    </row>
-    <row r="14" ht="24" customHeight="1">
-      <c r="A14" s="30" t="inlineStr">
-        <is>
-          <t>Outperformance</t>
-        </is>
-      </c>
-      <c r="B14" s="34" t="inlineStr">
-        <is>
-          <t>$742,052.21</t>
-        </is>
-      </c>
-      <c r="C14" s="32" t="n"/>
-      <c r="D14" s="32" t="n"/>
-      <c r="E14" s="32" t="n"/>
-      <c r="F14" s="33" t="n"/>
-    </row>
-    <row r="15" ht="24" customHeight="1">
-      <c r="A15" s="30" t="inlineStr">
-        <is>
-          <t>Your Portfolio %</t>
-        </is>
-      </c>
-      <c r="B15" s="34" t="inlineStr">
-        <is>
-          <t>136.56%</t>
-        </is>
-      </c>
-      <c r="C15" s="32" t="n"/>
-      <c r="D15" s="32" t="n"/>
-      <c r="E15" s="32" t="n"/>
-      <c r="F15" s="33" t="n"/>
-    </row>
-    <row r="16" ht="24" customHeight="1">
-      <c r="A16" s="30" t="inlineStr">
-        <is>
-          <t>S&amp;P 500 %</t>
-        </is>
-      </c>
-      <c r="B16" s="31" t="inlineStr">
-        <is>
-          <t>-44.73%</t>
-        </is>
-      </c>
-      <c r="C16" s="32" t="n"/>
-      <c r="D16" s="32" t="n"/>
-      <c r="E16" s="32" t="n"/>
-      <c r="F16" s="33" t="n"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B13:F13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1459,7 +1232,7 @@
       </c>
     </row>
     <row r="5" ht="24" customHeight="1">
-      <c r="A5" s="30" t="inlineStr">
+      <c r="A5" s="65" t="inlineStr">
         <is>
           <t>Total Net Worth (Latest)</t>
         </is>
@@ -1486,7 +1259,7 @@
       </c>
     </row>
     <row r="6" ht="24" customHeight="1">
-      <c r="A6" s="30" t="inlineStr">
+      <c r="A6" s="65" t="inlineStr">
         <is>
           <t>Total Profit/Loss (YTD)</t>
         </is>
@@ -1513,7 +1286,7 @@
       </c>
     </row>
     <row r="7" ht="24" customHeight="1">
-      <c r="A7" s="30" t="inlineStr">
+      <c r="A7" s="65" t="inlineStr">
         <is>
           <t>Profit %</t>
         </is>
@@ -1540,7 +1313,7 @@
       </c>
     </row>
     <row r="8" ht="24" customHeight="1">
-      <c r="A8" s="30" t="inlineStr">
+      <c r="A8" s="65" t="inlineStr">
         <is>
           <t>Largest Monthly Gain</t>
         </is>
@@ -1567,7 +1340,7 @@
       </c>
     </row>
     <row r="9" ht="24" customHeight="1">
-      <c r="A9" s="30" t="inlineStr">
+      <c r="A9" s="65" t="inlineStr">
         <is>
           <t>Largest Monthly Loss</t>
         </is>
@@ -1607,7 +1380,7 @@
       </c>
     </row>
     <row r="11" ht="22" customHeight="1">
-      <c r="A11" s="29" t="inlineStr">
+      <c r="A11" s="66" t="inlineStr">
         <is>
           <t>📊 VS. S&amp;P 500 BENCHMARK</t>
         </is>
@@ -1625,7 +1398,7 @@
       </c>
     </row>
     <row r="12" ht="24" customHeight="1">
-      <c r="A12" s="30" t="inlineStr">
+      <c r="A12" s="65" t="inlineStr">
         <is>
           <t>Your Portfolio Gain</t>
         </is>
@@ -1652,7 +1425,7 @@
       </c>
     </row>
     <row r="13" ht="24" customHeight="1">
-      <c r="A13" s="30" t="inlineStr">
+      <c r="A13" s="65" t="inlineStr">
         <is>
           <t>S&amp;P 500 Gain (Est.)</t>
         </is>
@@ -1679,7 +1452,7 @@
       </c>
     </row>
     <row r="14" ht="24" customHeight="1">
-      <c r="A14" s="30" t="inlineStr">
+      <c r="A14" s="65" t="inlineStr">
         <is>
           <t>Outperformance</t>
         </is>
@@ -1706,7 +1479,7 @@
       </c>
     </row>
     <row r="15" ht="24" customHeight="1">
-      <c r="A15" s="30" t="inlineStr">
+      <c r="A15" s="65" t="inlineStr">
         <is>
           <t>Your Portfolio %</t>
         </is>
@@ -1722,7 +1495,7 @@
       <c r="F15" s="33" t="n"/>
     </row>
     <row r="16" ht="24" customHeight="1">
-      <c r="A16" s="30" t="inlineStr">
+      <c r="A16" s="65" t="inlineStr">
         <is>
           <t>S&amp;P 500 %</t>
         </is>
@@ -1759,7 +1532,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
